--- a/Figures_data/Cassiope_Tables.xlsx
+++ b/Figures_data/Cassiope_Tables.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Population_genomics_Cassiope\Figures_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2EFCBC-DDC6-42DB-B8C5-2C7535770855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Table1 -sampling" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Table2 - Demographic model resu" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="SupTable-PopStats" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="SupTable_ABBA_BABA" sheetId="4" r:id="rId7"/>
+    <sheet name="Table1 -sampling" sheetId="1" r:id="rId1"/>
+    <sheet name="Table2 - Demographic model resu" sheetId="2" r:id="rId2"/>
+    <sheet name="SupTable-PopStats" sheetId="3" r:id="rId3"/>
+    <sheet name="SupTable_ABBA_BABA" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -847,78 +856,82 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmm d"/>
-    <numFmt numFmtId="165" formatCode="mmmm d"/>
+    <numFmt numFmtId="164" formatCode="mmm\ d"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -992,9 +1005,21 @@
         <bgColor rgb="FFE36C09"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1008,8 +1033,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1019,6 +1046,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1027,233 +1055,169 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="2" pivot="0" name="Table1 -sampling-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="Table1 -sampling-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="D2:L40" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="D2:L40" headerRowCount="0">
   <tableColumns count="9">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
   </tableColumns>
-  <tableStyleInfo name="Table1 -sampling-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Table1 -sampling-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1443,28 +1407,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="12.13"/>
-    <col customWidth="1" min="5" max="5" width="11.88"/>
-    <col customWidth="1" min="7" max="7" width="7.63"/>
-    <col customWidth="1" min="8" max="9" width="7.5"/>
-    <col customWidth="1" min="10" max="10" width="8.88"/>
-    <col customWidth="1" min="11" max="11" width="11.75"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1519,23 +1486,23 @@
         <v>16</v>
       </c>
       <c r="G2" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H2" s="6">
-        <v>50.5459</v>
+        <v>50.545900000000003</v>
       </c>
       <c r="I2" s="6">
-        <v>-123.2652</v>
+        <v>-123.26519999999999</v>
       </c>
       <c r="J2" s="6">
-        <v>1689.0</v>
+        <v>1689</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -1549,29 +1516,29 @@
         <v>14</v>
       </c>
       <c r="E3" s="10">
-        <v>45157.0</v>
+        <v>45157</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="6">
-        <v>49.9511</v>
+        <v>49.951099999999997</v>
       </c>
       <c r="I3" s="6">
         <v>-122.99</v>
       </c>
       <c r="J3" s="6">
-        <v>2197.0</v>
+        <v>2197</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -1585,29 +1552,29 @@
         <v>23</v>
       </c>
       <c r="E4" s="13">
-        <v>45101.0</v>
+        <v>45101</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H4" s="6">
-        <v>70.4537</v>
+        <v>70.453699999999998</v>
       </c>
       <c r="I4" s="6">
         <v>-157.4074</v>
       </c>
       <c r="J4" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -1621,29 +1588,29 @@
         <v>27</v>
       </c>
       <c r="E5" s="13">
-        <v>45115.0</v>
+        <v>45115</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="6">
-        <v>71.315</v>
+        <v>71.314999999999998</v>
       </c>
       <c r="I5" s="6">
-        <v>-156.5989</v>
+        <v>-156.59889999999999</v>
       </c>
       <c r="J5" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -1657,29 +1624,29 @@
         <v>31</v>
       </c>
       <c r="E6" s="13">
-        <v>45138.0</v>
+        <v>45138</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H6" s="6">
-        <v>63.0769</v>
+        <v>63.076900000000002</v>
       </c>
       <c r="I6" s="6">
-        <v>-146.223</v>
+        <v>-146.22300000000001</v>
       </c>
       <c r="J6" s="6">
-        <v>1022.0</v>
+        <v>1022</v>
       </c>
       <c r="K6" s="6">
         <v>12.5</v>
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
@@ -1693,29 +1660,29 @@
         <v>34</v>
       </c>
       <c r="E7" s="13">
-        <v>45133.0</v>
+        <v>45133</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="6">
-        <v>68.6174</v>
+        <v>68.617400000000004</v>
       </c>
       <c r="I7" s="6">
         <v>-149.3092</v>
       </c>
       <c r="J7" s="6">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" ht="54.0" customHeight="1">
+    <row r="8" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
@@ -1729,29 +1696,29 @@
         <v>34</v>
       </c>
       <c r="E8" s="13">
-        <v>45133.0</v>
+        <v>45133</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H8" s="6">
-        <v>68.6344</v>
+        <v>68.634399999999999</v>
       </c>
       <c r="I8" s="6">
-        <v>-149.6433</v>
+        <v>-149.64330000000001</v>
       </c>
       <c r="J8" s="6">
-        <v>753.0</v>
+        <v>753</v>
       </c>
       <c r="K8" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" ht="26.25" customHeight="1">
+    <row r="9" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
@@ -1765,29 +1732,29 @@
         <v>31</v>
       </c>
       <c r="E9" s="13">
-        <v>45136.0</v>
+        <v>45136</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="6">
-        <v>65.3975</v>
+        <v>65.397499999999994</v>
       </c>
       <c r="I9" s="6">
-        <v>-145.973</v>
+        <v>-145.97300000000001</v>
       </c>
       <c r="J9" s="6">
-        <v>962.0</v>
+        <v>962</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" ht="84.75" customHeight="1">
+    <row r="10" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>40</v>
       </c>
@@ -1801,29 +1768,29 @@
         <v>34</v>
       </c>
       <c r="E10" s="13">
-        <v>45133.0</v>
+        <v>45133</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6">
-        <v>68.6236</v>
+        <v>68.623599999999996</v>
       </c>
       <c r="I10" s="6">
         <v>-149.6103</v>
       </c>
       <c r="J10" s="6">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" ht="26.25" customHeight="1">
+    <row r="11" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
@@ -1837,29 +1804,29 @@
         <v>31</v>
       </c>
       <c r="E11" s="13">
-        <v>45132.0</v>
+        <v>45132</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="6">
-        <v>69.4244</v>
+        <v>69.424400000000006</v>
       </c>
       <c r="I11" s="6">
-        <v>-148.6976</v>
+        <v>-148.69759999999999</v>
       </c>
       <c r="J11" s="6">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" ht="26.25" customHeight="1">
+    <row r="12" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>44</v>
       </c>
@@ -1877,23 +1844,23 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H12" s="6">
-        <v>60.9811</v>
+        <v>60.981099999999998</v>
       </c>
       <c r="I12" s="6">
-        <v>-138.4113</v>
+        <v>-138.41130000000001</v>
       </c>
       <c r="J12" s="6">
         <v>1397.6</v>
       </c>
       <c r="K12" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="168.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
@@ -1913,23 +1880,23 @@
         <v>51</v>
       </c>
       <c r="G13" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H13" s="6">
-        <v>61.2114</v>
+        <v>61.211399999999998</v>
       </c>
       <c r="I13" s="6">
-        <v>-138.2845</v>
+        <v>-138.28450000000001</v>
       </c>
       <c r="J13" s="6">
-        <v>1710.0</v>
+        <v>1710</v>
       </c>
       <c r="K13" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="168.6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>52</v>
       </c>
@@ -1943,29 +1910,29 @@
         <v>55</v>
       </c>
       <c r="E14" s="13">
-        <v>42946.0</v>
+        <v>42946</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="6">
-        <v>69.5789</v>
+        <v>69.578900000000004</v>
       </c>
       <c r="I14" s="6">
-        <v>-138.9114</v>
+        <v>-138.91139999999999</v>
       </c>
       <c r="J14" s="6">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="K14" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>57</v>
       </c>
@@ -1985,13 +1952,13 @@
         <v>62</v>
       </c>
       <c r="G15" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H15" s="6">
-        <v>69.8223</v>
+        <v>69.822299999999998</v>
       </c>
       <c r="I15" s="6">
-        <v>-122.6625</v>
+        <v>-122.66249999999999</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>63</v>
@@ -2001,7 +1968,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" ht="48.75" customHeight="1">
+    <row r="16" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>64</v>
       </c>
@@ -2015,29 +1982,29 @@
         <v>66</v>
       </c>
       <c r="E16" s="10">
-        <v>45148.0</v>
+        <v>45148</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H16" s="6">
-        <v>65.8667</v>
+        <v>65.866699999999994</v>
       </c>
       <c r="I16" s="6">
         <v>-111.5333</v>
       </c>
       <c r="J16" s="6">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="K16" s="6">
         <v>9.5</v>
       </c>
       <c r="L16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>67</v>
       </c>
@@ -2051,29 +2018,29 @@
         <v>70</v>
       </c>
       <c r="E17" s="13">
-        <v>45119.0</v>
+        <v>45119</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G17" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H17" s="6">
-        <v>79.4151</v>
+        <v>79.415099999999995</v>
       </c>
       <c r="I17" s="6">
-        <v>-90.7481</v>
+        <v>-90.748099999999994</v>
       </c>
       <c r="J17" s="6">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="K17" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>72</v>
       </c>
@@ -2093,23 +2060,23 @@
         <v>77</v>
       </c>
       <c r="G18" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H18" s="6">
-        <v>78.8648</v>
+        <v>78.864800000000002</v>
       </c>
       <c r="I18" s="6">
-        <v>-75.8007</v>
+        <v>-75.800700000000006</v>
       </c>
       <c r="J18" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K18" s="6">
         <v>7.2</v>
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -2123,29 +2090,29 @@
         <v>75</v>
       </c>
       <c r="E19" s="13">
-        <v>45138.0</v>
+        <v>45138</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H19" s="6">
-        <v>78.8452</v>
+        <v>78.845200000000006</v>
       </c>
       <c r="I19" s="6">
-        <v>-75.7996</v>
+        <v>-75.799599999999998</v>
       </c>
       <c r="J19" s="6">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="K19" s="6">
         <v>7.2</v>
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" ht="81.0" customHeight="1">
+    <row r="20" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>80</v>
       </c>
@@ -2159,19 +2126,19 @@
         <v>75</v>
       </c>
       <c r="E20" s="13">
-        <v>45124.0</v>
+        <v>45124</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="6">
-        <v>79.1167</v>
+        <v>79.116699999999994</v>
       </c>
       <c r="I20" s="6">
-        <v>-80.6667</v>
+        <v>-80.666700000000006</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="6">
@@ -2179,7 +2146,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" ht="79.5" customHeight="1">
+    <row r="21" spans="1:12" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>82</v>
       </c>
@@ -2193,19 +2160,19 @@
         <v>75</v>
       </c>
       <c r="E21" s="13">
-        <v>45124.0</v>
+        <v>45124</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H21" s="6">
-        <v>79.1167</v>
+        <v>79.116699999999994</v>
       </c>
       <c r="I21" s="6">
-        <v>-80.6667</v>
+        <v>-80.666700000000006</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="6">
@@ -2213,7 +2180,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>84</v>
       </c>
@@ -2233,13 +2200,13 @@
         <v>71</v>
       </c>
       <c r="G22" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H22" s="6">
-        <v>80.0593</v>
+        <v>80.059299999999993</v>
       </c>
       <c r="I22" s="6">
-        <v>-85.3122</v>
+        <v>-85.312200000000004</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>87</v>
@@ -2249,7 +2216,7 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>88</v>
       </c>
@@ -2263,19 +2230,19 @@
         <v>14</v>
       </c>
       <c r="E23" s="13">
-        <v>45148.0</v>
+        <v>45148</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="6">
-        <v>76.4261</v>
+        <v>76.426100000000005</v>
       </c>
       <c r="I23" s="6">
-        <v>-82.9094</v>
+        <v>-82.909400000000005</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="6">
@@ -2283,7 +2250,7 @@
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" ht="192.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>90</v>
       </c>
@@ -2297,29 +2264,29 @@
         <v>70</v>
       </c>
       <c r="E24" s="13">
-        <v>45123.0</v>
+        <v>45123</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H24" s="6">
-        <v>81.8274</v>
+        <v>81.827399999999997</v>
       </c>
       <c r="I24" s="6">
-        <v>-71.3366</v>
+        <v>-71.336600000000004</v>
       </c>
       <c r="J24" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="K24" s="6">
         <v>5.5</v>
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>93</v>
       </c>
@@ -2333,29 +2300,29 @@
         <v>14</v>
       </c>
       <c r="E25" s="13">
-        <v>45109.0</v>
+        <v>45109</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="6">
-        <v>70.4844</v>
+        <v>70.484399999999994</v>
       </c>
       <c r="I25" s="6">
-        <v>-68.5131</v>
+        <v>-68.513099999999994</v>
       </c>
       <c r="J25" s="6">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="K25" s="6">
         <v>10.5</v>
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>96</v>
       </c>
@@ -2369,29 +2336,29 @@
         <v>98</v>
       </c>
       <c r="E26" s="13">
-        <v>45118.0</v>
+        <v>45118</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="6">
-        <v>73.1569</v>
+        <v>73.156899999999993</v>
       </c>
       <c r="I26" s="6">
-        <v>-79.9687</v>
+        <v>-79.968699999999998</v>
       </c>
       <c r="J26" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K26" s="6">
         <v>10.5</v>
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>100</v>
       </c>
@@ -2411,13 +2378,13 @@
         <v>16</v>
       </c>
       <c r="G27" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H27" s="6">
-        <v>63.7467</v>
+        <v>63.746699999999997</v>
       </c>
       <c r="I27" s="6">
-        <v>-68.517</v>
+        <v>-68.516999999999996</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="6">
@@ -2425,7 +2392,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>103</v>
       </c>
@@ -2445,21 +2412,21 @@
         <v>16</v>
       </c>
       <c r="G28" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H28" s="6">
-        <v>67.5556</v>
+        <v>67.555599999999998</v>
       </c>
       <c r="I28" s="6">
-        <v>-64.0257</v>
+        <v>-64.025700000000001</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" ht="120.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>106</v>
       </c>
@@ -2479,25 +2446,25 @@
         <v>109</v>
       </c>
       <c r="G29" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H29" s="6">
-        <v>67.7984</v>
+        <v>67.798400000000001</v>
       </c>
       <c r="I29" s="6">
         <v>-115.2317</v>
       </c>
       <c r="J29" s="6">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="K29" s="6">
         <v>10.5</v>
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>110</v>
@@ -2509,29 +2476,29 @@
         <v>112</v>
       </c>
       <c r="E30" s="10">
-        <v>45158.0</v>
+        <v>45158</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G30" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="6">
-        <v>66.5326</v>
+        <v>66.532600000000002</v>
       </c>
       <c r="I30" s="6">
-        <v>-53.4156</v>
+        <v>-53.415599999999998</v>
       </c>
       <c r="J30" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K30" s="6">
         <v>11.5</v>
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>114</v>
       </c>
@@ -2545,29 +2512,29 @@
         <v>116</v>
       </c>
       <c r="E31" s="13">
-        <v>45103.0</v>
+        <v>45103</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H31" s="6">
-        <v>69.207</v>
+        <v>69.206999999999994</v>
       </c>
       <c r="I31" s="6">
-        <v>-51.105</v>
+        <v>-51.104999999999997</v>
       </c>
       <c r="J31" s="6">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="K31" s="6">
         <v>9.5</v>
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>117</v>
       </c>
@@ -2581,29 +2548,29 @@
         <v>120</v>
       </c>
       <c r="E32" s="13">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H32" s="6">
-        <v>69.2541</v>
+        <v>69.254099999999994</v>
       </c>
       <c r="I32" s="6">
-        <v>-53.5176</v>
+        <v>-53.517600000000002</v>
       </c>
       <c r="J32" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K32" s="6">
         <v>11.5</v>
       </c>
       <c r="L32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>121</v>
       </c>
@@ -2617,29 +2584,29 @@
         <v>120</v>
       </c>
       <c r="E33" s="13">
-        <v>45106.0</v>
+        <v>45106</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H33" s="6">
-        <v>69.2703</v>
+        <v>69.270300000000006</v>
       </c>
       <c r="I33" s="6">
-        <v>-53.5635</v>
+        <v>-53.563499999999998</v>
       </c>
       <c r="J33" s="6">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="K33" s="6">
         <v>11.5</v>
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>123</v>
       </c>
@@ -2653,29 +2620,29 @@
         <v>125</v>
       </c>
       <c r="E34" s="13">
-        <v>45114.0</v>
+        <v>45114</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>126</v>
       </c>
       <c r="G34" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H34" s="6">
         <v>74.47</v>
       </c>
       <c r="I34" s="6">
-        <v>-20.5617</v>
+        <v>-20.561699999999998</v>
       </c>
       <c r="J34" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="K34" s="6">
         <v>10.5</v>
       </c>
       <c r="L34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>127</v>
       </c>
@@ -2689,29 +2656,29 @@
         <v>130</v>
       </c>
       <c r="E35" s="13">
-        <v>45134.0</v>
+        <v>45134</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="6">
         <v>78.711112</v>
       </c>
       <c r="I35" s="6">
-        <v>16.45888</v>
+        <v>16.458880000000001</v>
       </c>
       <c r="J35" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K35" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>131</v>
       </c>
@@ -2725,29 +2692,29 @@
         <v>130</v>
       </c>
       <c r="E36" s="13">
-        <v>45134.0</v>
+        <v>45134</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H36" s="6">
-        <v>78.207572</v>
+        <v>78.207571999999999</v>
       </c>
       <c r="I36" s="6">
-        <v>15.606609</v>
+        <v>15.606609000000001</v>
       </c>
       <c r="J36" s="6">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="K36" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>133</v>
       </c>
@@ -2767,23 +2734,23 @@
         <v>16</v>
       </c>
       <c r="G37" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H37" s="6">
-        <v>68.35</v>
+        <v>68.349999999999994</v>
       </c>
       <c r="I37" s="6">
         <v>18.48</v>
       </c>
       <c r="J37" s="6">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="K37" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L37" s="7"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>138</v>
       </c>
@@ -2803,25 +2770,25 @@
         <v>16</v>
       </c>
       <c r="G38" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H38" s="6">
-        <v>68.3247</v>
+        <v>68.324700000000007</v>
       </c>
       <c r="I38" s="6">
-        <v>18.9583</v>
+        <v>18.958300000000001</v>
       </c>
       <c r="J38" s="6">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="K38" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L38" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" ht="120.6" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>143</v>
       </c>
@@ -2841,23 +2808,23 @@
         <v>16</v>
       </c>
       <c r="G39" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="6">
-        <v>72.36811</v>
+        <v>72.368110000000001</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>148</v>
       </c>
       <c r="J39" s="6">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
         <v>149</v>
       </c>
@@ -2877,45 +2844,46 @@
         <v>16</v>
       </c>
       <c r="G40" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H40" s="6">
-        <v>72.3772</v>
+        <v>72.377200000000002</v>
       </c>
       <c r="I40" s="6">
-        <v>126.4792</v>
+        <v>126.47920000000001</v>
       </c>
       <c r="J40" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>152</v>
       </c>
@@ -2932,66 +2900,66 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>157</v>
       </c>
       <c r="B2" s="34">
-        <v>234283.0</v>
+        <v>234283</v>
       </c>
       <c r="C2" s="34">
-        <v>427060.0</v>
+        <v>427060</v>
       </c>
       <c r="D2" s="34">
-        <v>257770.0</v>
+        <v>257770</v>
       </c>
       <c r="E2" s="34">
-        <v>910164.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>910164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>158</v>
       </c>
       <c r="B3" s="34">
-        <v>930650.0</v>
+        <v>930650</v>
       </c>
       <c r="C3" s="34">
-        <v>994418.0</v>
+        <v>994418</v>
       </c>
       <c r="D3" s="34">
-        <v>2021998.0</v>
+        <v>2021998</v>
       </c>
       <c r="E3" s="34">
-        <v>3108542.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3108542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>159</v>
       </c>
       <c r="B4" s="34">
-        <v>527321.0</v>
+        <v>527321</v>
       </c>
       <c r="C4" s="34">
-        <v>473763.0</v>
+        <v>473763</v>
       </c>
       <c r="D4" s="34">
-        <v>554466.0</v>
+        <v>554466</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B5" s="34">
-        <v>841133.0</v>
+        <v>841133</v>
       </c>
       <c r="C5" s="34">
-        <v>883091.0</v>
+        <v>883091</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>160</v>
@@ -3000,12 +2968,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>162</v>
       </c>
       <c r="B6" s="34">
-        <v>195377.0</v>
+        <v>195377</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>160</v>
@@ -3017,7 +2985,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>163</v>
       </c>
@@ -3025,16 +2993,16 @@
         <v>160</v>
       </c>
       <c r="C7" s="34">
-        <v>25298.0</v>
+        <v>25298</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>160</v>
       </c>
       <c r="E7" s="34">
-        <v>64392.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>64392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>164</v>
       </c>
@@ -3045,13 +3013,13 @@
         <v>160</v>
       </c>
       <c r="D8" s="34">
-        <v>2280.0</v>
+        <v>2280</v>
       </c>
       <c r="E8" s="34">
-        <v>4466.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>165</v>
       </c>
@@ -3062,21 +3030,21 @@
         <v>160</v>
       </c>
       <c r="D9" s="34">
-        <v>476666.0</v>
+        <v>476666</v>
       </c>
       <c r="E9" s="34">
-        <v>160462.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>160462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B10" s="34">
-        <v>5820155.0</v>
+        <v>5820155</v>
       </c>
       <c r="C10" s="34">
-        <v>5760086.0</v>
+        <v>5760086</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>160</v>
@@ -3085,46 +3053,46 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B11" s="34">
-        <v>305560.0</v>
+        <v>305560</v>
       </c>
       <c r="C11" s="34">
-        <v>620310.0</v>
+        <v>620310</v>
       </c>
       <c r="D11" s="34">
-        <v>406460.0</v>
+        <v>406460</v>
       </c>
       <c r="E11" s="34">
-        <v>1292560.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1292560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="34">
-        <v>1368590.0</v>
+        <v>1368590</v>
       </c>
       <c r="C12" s="34">
-        <v>1557790.0</v>
+        <v>1557790</v>
       </c>
       <c r="D12" s="34">
-        <v>1626240.0</v>
+        <v>1626240</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B13" s="34">
-        <v>6718100.0</v>
+        <v>6718100</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>160</v>
@@ -3136,7 +3104,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>170</v>
       </c>
@@ -3144,29 +3112,29 @@
         <v>160</v>
       </c>
       <c r="C14" s="34">
-        <v>122160.0</v>
+        <v>122160</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>160</v>
       </c>
       <c r="E14" s="34">
-        <v>108080.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>108080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="34">
-        <v>663330.0</v>
+        <v>663330</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="34">
-        <v>97690.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>97690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>172</v>
       </c>
@@ -3183,7 +3151,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>173</v>
       </c>
@@ -3200,7 +3168,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>174</v>
       </c>
@@ -3217,12 +3185,12 @@
         <v>-5665.7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>175</v>
       </c>
       <c r="B19" s="38">
-        <v>-8446.53</v>
+        <v>-8446.5300000000007</v>
       </c>
       <c r="C19" s="38">
         <v>-7410.13</v>
@@ -3234,45 +3202,46 @@
         <v>-5522.22</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.63"/>
-    <col customWidth="1" min="6" max="6" width="17.75"/>
-    <col customWidth="1" min="7" max="7" width="17.13"/>
-    <col customWidth="1" min="8" max="8" width="16.13"/>
-    <col customWidth="1" min="9" max="9" width="15.75"/>
-    <col customWidth="1" min="10" max="10" width="16.0"/>
-    <col customWidth="1" min="11" max="11" width="14.88"/>
-    <col customWidth="1" min="16" max="16" width="22.13"/>
-    <col customWidth="1" min="17" max="17" width="20.5"/>
-    <col customWidth="1" min="22" max="22" width="23.75"/>
-    <col customWidth="1" min="23" max="23" width="17.25"/>
-    <col customWidth="1" min="30" max="31" width="17.0"/>
-    <col customWidth="1" min="32" max="32" width="17.13"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" customWidth="1"/>
+    <col min="22" max="22" width="23.77734375" customWidth="1"/>
+    <col min="23" max="23" width="17.21875" customWidth="1"/>
+    <col min="30" max="31" width="17" customWidth="1"/>
+    <col min="32" max="32" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>176</v>
       </c>
@@ -3388,4415 +3357,4415 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="42">
         <v>66.53</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="42">
         <v>-53.42</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <v>11.5</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="42">
         <v>0.03</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="42">
         <v>0.21</v>
       </c>
-      <c r="I2" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="43">
+      <c r="I2" s="42">
+        <v>0</v>
+      </c>
+      <c r="J2" s="42">
         <v>0.73</v>
       </c>
-      <c r="K2" s="43">
+      <c r="K2" s="42">
         <v>0.03</v>
       </c>
-      <c r="L2" s="43">
+      <c r="L2" s="42">
         <v>2969.91</v>
       </c>
-      <c r="M2" s="43">
+      <c r="M2" s="42">
         <v>0.17</v>
       </c>
-      <c r="N2" s="43">
-        <v>19.67</v>
-      </c>
-      <c r="O2" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P2" s="43">
-        <v>6631.0</v>
-      </c>
-      <c r="Q2" s="43">
+      <c r="N2" s="42">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="O2" s="42">
+        <v>0</v>
+      </c>
+      <c r="P2" s="42">
+        <v>6631</v>
+      </c>
+      <c r="Q2" s="42">
         <v>7154.13</v>
       </c>
-      <c r="R2" s="43">
+      <c r="R2" s="42">
         <v>-0.18</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="42">
         <v>0.12</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="42">
         <v>1.07</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="42">
         <v>10113.6</v>
       </c>
-      <c r="V2" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W2" s="43">
+      <c r="V2" s="42">
+        <v>0</v>
+      </c>
+      <c r="W2" s="42">
         <v>28.2</v>
       </c>
-      <c r="X2" s="43">
+      <c r="X2" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="42">
         <v>0.05</v>
       </c>
-      <c r="AA2" s="43">
+      <c r="AA2" s="42">
         <v>0.06</v>
       </c>
-      <c r="AB2" s="43">
+      <c r="AB2" s="42">
         <v>0.02</v>
       </c>
-      <c r="AC2" s="43">
+      <c r="AC2" s="42">
         <v>0.01</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AD2" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AE2" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="AG2" s="43">
+      <c r="AG2" s="42">
         <v>5.03</v>
       </c>
-      <c r="AH2" s="43">
+      <c r="AH2" s="42">
         <v>2.79</v>
       </c>
-      <c r="AI2" s="43">
+      <c r="AI2" s="42">
         <v>8.41</v>
       </c>
-      <c r="AJ2" s="43">
+      <c r="AJ2" s="42">
         <v>11.83</v>
       </c>
-      <c r="AK2" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL2" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="42" t="s">
+      <c r="AK2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <v>78.88</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>-75.78</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="42">
         <v>7.2</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="42">
         <v>0.02</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="42">
         <v>0.83</v>
       </c>
-      <c r="I3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="43">
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
+        <v>0</v>
+      </c>
+      <c r="K3" s="42">
         <v>0.15</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="42">
         <v>3038.04</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="42">
         <v>0.17</v>
       </c>
-      <c r="N3" s="43">
-        <v>20.06</v>
-      </c>
-      <c r="O3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P3" s="43">
+      <c r="N3" s="42">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="O3" s="42">
+        <v>0</v>
+      </c>
+      <c r="P3" s="42">
         <v>8373.57</v>
       </c>
-      <c r="Q3" s="43">
-        <v>8515.63</v>
-      </c>
-      <c r="R3" s="43">
+      <c r="Q3" s="42">
+        <v>8515.6299999999992</v>
+      </c>
+      <c r="R3" s="42">
         <v>-0.05</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="42">
         <v>0.09</v>
       </c>
-      <c r="T3" s="43">
+      <c r="T3" s="42">
         <v>1.05</v>
       </c>
-      <c r="U3" s="43">
+      <c r="U3" s="42">
         <v>11537.93</v>
       </c>
-      <c r="V3" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W3" s="43">
+      <c r="V3" s="42">
+        <v>0</v>
+      </c>
+      <c r="W3" s="42">
         <v>39.07</v>
       </c>
-      <c r="X3" s="43">
+      <c r="X3" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y3" s="43">
+      <c r="Y3" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z3" s="43">
+      <c r="Z3" s="42">
         <v>0.03</v>
       </c>
-      <c r="AA3" s="43">
+      <c r="AA3" s="42">
         <v>-0.11</v>
       </c>
-      <c r="AB3" s="43">
+      <c r="AB3" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC3" s="43">
+      <c r="AC3" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AD3" s="42" t="s">
+      <c r="AD3" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AE3" s="42" t="s">
+      <c r="AE3" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AG3" s="43">
+      <c r="AG3" s="42">
         <v>3.64</v>
       </c>
-      <c r="AH3" s="43">
+      <c r="AH3" s="42">
         <v>0.8</v>
       </c>
-      <c r="AI3" s="43">
+      <c r="AI3" s="42">
         <v>7.33</v>
       </c>
-      <c r="AJ3" s="43">
+      <c r="AJ3" s="42">
         <v>69.91</v>
       </c>
-      <c r="AK3" s="43">
+      <c r="AK3" s="42">
         <v>111.57</v>
       </c>
-      <c r="AL3" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="42" t="s">
+      <c r="AL3" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="42">
         <v>78.88</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="42">
         <v>-75.8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>7.2</v>
       </c>
-      <c r="G4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="43">
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="H4" s="42">
         <v>0.92</v>
       </c>
-      <c r="I4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="43">
+      <c r="I4" s="42">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0</v>
+      </c>
+      <c r="K4" s="42">
         <v>0.08</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="42">
         <v>2676.38</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="42">
         <v>0.18</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="42">
         <v>16.61</v>
       </c>
-      <c r="O4" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P4" s="43">
+      <c r="O4" s="42">
+        <v>0</v>
+      </c>
+      <c r="P4" s="42">
         <v>4967.5</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="42">
         <v>4843.87</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="42">
         <v>0.05</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="42">
         <v>0.16</v>
       </c>
-      <c r="T4" s="43">
+      <c r="T4" s="42">
         <v>1.04</v>
       </c>
-      <c r="U4" s="43">
+      <c r="U4" s="42">
         <v>7417.83</v>
       </c>
-      <c r="V4" s="43">
+      <c r="V4" s="42">
         <v>0.04</v>
       </c>
-      <c r="W4" s="43">
+      <c r="W4" s="42">
         <v>383.33</v>
       </c>
-      <c r="X4" s="43">
+      <c r="X4" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y4" s="43">
+      <c r="Y4" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z4" s="43">
+      <c r="Z4" s="42">
         <v>0.03</v>
       </c>
-      <c r="AA4" s="43">
+      <c r="AA4" s="42">
         <v>-0.12</v>
       </c>
-      <c r="AB4" s="43">
+      <c r="AB4" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC4" s="43">
+      <c r="AC4" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AD4" s="42" t="s">
+      <c r="AD4" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AE4" s="42" t="s">
+      <c r="AE4" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="AF4" s="42" t="s">
+      <c r="AF4" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AG4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL4" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="42" t="s">
+      <c r="AG4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL4" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="42">
         <v>70.45</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <v>-157.41</v>
       </c>
-      <c r="F5" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="G5" s="43">
+      <c r="F5" s="42">
+        <v>20</v>
+      </c>
+      <c r="G5" s="42">
         <v>0.01</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="42">
         <v>0.04</v>
       </c>
-      <c r="I5" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="43">
+      <c r="I5" s="42">
+        <v>0</v>
+      </c>
+      <c r="J5" s="42">
         <v>0.01</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="42">
         <v>0.95</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="42">
         <v>3598.41</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="42">
         <v>0.18</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="42">
         <v>23.8</v>
       </c>
-      <c r="O5" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P5" s="43">
+      <c r="O5" s="42">
+        <v>0</v>
+      </c>
+      <c r="P5" s="42">
         <v>8632.1</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="42">
         <v>8991.33</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="42">
         <v>-0.1</v>
       </c>
-      <c r="S5" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="T5" s="43">
+      <c r="S5" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T5" s="42">
         <v>1.01</v>
       </c>
-      <c r="U5" s="43">
+      <c r="U5" s="42">
         <v>12574.6</v>
       </c>
-      <c r="V5" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W5" s="43">
+      <c r="V5" s="42">
+        <v>0</v>
+      </c>
+      <c r="W5" s="42">
         <v>32.4</v>
       </c>
-      <c r="X5" s="43">
+      <c r="X5" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y5" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z5" s="43">
-        <v>-0.07</v>
-      </c>
-      <c r="AA5" s="43">
+      <c r="Y5" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AA5" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AB5" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AC5" s="43">
+      <c r="AB5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="42">
         <v>-0.03</v>
       </c>
-      <c r="AD5" s="42" t="s">
+      <c r="AD5" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE5" s="42" t="s">
+      <c r="AE5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="42" t="s">
+      <c r="AF5" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG5" s="43">
+      <c r="AG5" s="42">
         <v>4.46</v>
       </c>
-      <c r="AH5" s="43">
+      <c r="AH5" s="42">
         <v>1.74</v>
       </c>
-      <c r="AI5" s="43">
+      <c r="AI5" s="42">
         <v>7.63</v>
       </c>
-      <c r="AJ5" s="43">
+      <c r="AJ5" s="42">
         <v>9.9</v>
       </c>
-      <c r="AK5" s="43">
+      <c r="AK5" s="42">
         <v>3.15</v>
       </c>
-      <c r="AL5" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="42" t="s">
+      <c r="AL5" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="42">
         <v>79.42</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <v>-90.75</v>
       </c>
-      <c r="F6" s="43">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="43">
+      <c r="F6" s="42">
+        <v>2</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42">
         <v>0.02</v>
       </c>
-      <c r="I6" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="43">
-        <v>0.29</v>
-      </c>
-      <c r="K6" s="43">
+      <c r="I6" s="42">
+        <v>0</v>
+      </c>
+      <c r="J6" s="42">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K6" s="42">
         <v>0.69</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="42">
         <v>2660.18</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="42">
         <v>0.17</v>
       </c>
-      <c r="N6" s="43">
-        <v>17.31</v>
-      </c>
-      <c r="O6" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P6" s="43">
+      <c r="N6" s="42">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="O6" s="42">
+        <v>0</v>
+      </c>
+      <c r="P6" s="42">
         <v>6188.89</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="42">
         <v>6315.58</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="42">
         <v>-0.05</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="42">
         <v>0.05</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="42">
         <v>1.05</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="42">
         <v>8940.11</v>
       </c>
-      <c r="V6" s="43">
+      <c r="V6" s="42">
         <v>0.01</v>
       </c>
-      <c r="W6" s="43">
+      <c r="W6" s="42">
         <v>106.89</v>
       </c>
-      <c r="X6" s="43">
+      <c r="X6" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y6" s="43">
+      <c r="Y6" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z6" s="43">
+      <c r="Z6" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AA6" s="43">
+      <c r="AA6" s="42">
         <v>0.04</v>
       </c>
-      <c r="AB6" s="43">
+      <c r="AB6" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC6" s="43">
+      <c r="AC6" s="42">
         <v>-0.06</v>
       </c>
-      <c r="AD6" s="42" t="s">
+      <c r="AD6" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE6" s="42" t="s">
+      <c r="AE6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="42" t="s">
+      <c r="AF6" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG6" s="43">
+      <c r="AG6" s="42">
         <v>3.64</v>
       </c>
-      <c r="AH6" s="43">
+      <c r="AH6" s="42">
         <v>0.8</v>
       </c>
-      <c r="AI6" s="43">
+      <c r="AI6" s="42">
         <v>7.33</v>
       </c>
-      <c r="AJ6" s="43">
+      <c r="AJ6" s="42">
         <v>69.91</v>
       </c>
-      <c r="AK6" s="43">
+      <c r="AK6" s="42">
         <v>111.57</v>
       </c>
-      <c r="AL6" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="42" t="s">
+      <c r="AL6" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="43">
-        <v>71.32</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="D7" s="42">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="E7" s="42">
         <v>-156.6</v>
       </c>
-      <c r="F7" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="F7" s="42">
+        <v>20</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
         <v>0.08</v>
       </c>
-      <c r="I7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="43">
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42">
         <v>0.03</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="42">
         <v>0.89</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="42">
         <v>3448.88</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="42">
         <v>0.17</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="42">
         <v>22.8</v>
       </c>
-      <c r="O7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P7" s="43">
+      <c r="O7" s="42">
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
         <v>8533.6</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="42">
         <v>8906.11</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="42">
         <v>-0.11</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="42">
         <v>0.02</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="42">
         <v>1.03</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="42">
         <v>12339.5</v>
       </c>
-      <c r="V7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W7" s="43">
+      <c r="V7" s="42">
+        <v>0</v>
+      </c>
+      <c r="W7" s="42">
         <v>35.9</v>
       </c>
-      <c r="X7" s="43">
+      <c r="X7" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y7" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z7" s="43">
+      <c r="Y7" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="42">
         <v>-0.05</v>
       </c>
-      <c r="AA7" s="43">
+      <c r="AA7" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AB7" s="43">
+      <c r="AB7" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC7" s="43">
+      <c r="AC7" s="42">
         <v>-0.04</v>
       </c>
-      <c r="AD7" s="42" t="s">
+      <c r="AD7" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE7" s="42" t="s">
+      <c r="AE7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF7" s="42" t="s">
+      <c r="AF7" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG7" s="43">
+      <c r="AG7" s="42">
         <v>4.46</v>
       </c>
-      <c r="AH7" s="43">
+      <c r="AH7" s="42">
         <v>1.74</v>
       </c>
-      <c r="AI7" s="43">
+      <c r="AI7" s="42">
         <v>7.63</v>
       </c>
-      <c r="AJ7" s="43">
+      <c r="AJ7" s="42">
         <v>9.9</v>
       </c>
-      <c r="AK7" s="43">
+      <c r="AK7" s="42">
         <v>3.15</v>
       </c>
-      <c r="AL7" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="42" t="s">
+      <c r="AL7" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="42">
         <v>73.16</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="42">
         <v>-79.97</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <v>10.5</v>
       </c>
-      <c r="G8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="43">
+      <c r="G8" s="42">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
         <v>0.64</v>
       </c>
-      <c r="I8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="K8" s="43">
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K8" s="42">
         <v>0.3</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="42">
         <v>2996.42</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="42">
         <v>0.17</v>
       </c>
-      <c r="N8" s="43">
-        <v>19.85</v>
-      </c>
-      <c r="O8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P8" s="43">
+      <c r="N8" s="42">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="O8" s="42">
+        <v>0</v>
+      </c>
+      <c r="P8" s="42">
         <v>6816.5</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="42">
         <v>7003.18</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="42">
         <v>-0.06</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="42">
         <v>0.17</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="42">
         <v>1.03</v>
       </c>
-      <c r="U8" s="43">
-        <v>9989.7</v>
-      </c>
-      <c r="V8" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W8" s="43">
+      <c r="U8" s="42">
+        <v>9989.7000000000007</v>
+      </c>
+      <c r="V8" s="42">
+        <v>0</v>
+      </c>
+      <c r="W8" s="42">
         <v>24.6</v>
       </c>
-      <c r="X8" s="43">
+      <c r="X8" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y8" s="43">
+      <c r="Y8" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z8" s="43">
+      <c r="Z8" s="42">
         <v>0.02</v>
       </c>
-      <c r="AA8" s="43">
+      <c r="AA8" s="42">
         <v>-0.05</v>
       </c>
-      <c r="AB8" s="43">
+      <c r="AB8" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC8" s="43">
+      <c r="AC8" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AD8" s="42" t="s">
+      <c r="AD8" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AE8" s="42" t="s">
+      <c r="AE8" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="AF8" s="42" t="s">
+      <c r="AF8" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AG8" s="43">
-        <v>4.86</v>
-      </c>
-      <c r="AH8" s="43">
+      <c r="AG8" s="42">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AH8" s="42">
         <v>1.62</v>
       </c>
-      <c r="AI8" s="43">
+      <c r="AI8" s="42">
         <v>8.06</v>
       </c>
-      <c r="AJ8" s="43">
+      <c r="AJ8" s="42">
         <v>13.14</v>
       </c>
-      <c r="AK8" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL8" s="43">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="42" t="s">
+      <c r="AK8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL8" s="42">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <v>70.48</v>
       </c>
-      <c r="E9" s="43">
-        <v>-68.51</v>
-      </c>
-      <c r="F9" s="43">
+      <c r="E9" s="42">
+        <v>-68.510000000000005</v>
+      </c>
+      <c r="F9" s="42">
         <v>10.5</v>
       </c>
-      <c r="G9" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="43">
+      <c r="G9" s="42">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42">
         <v>0.01</v>
       </c>
-      <c r="I9" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="43">
-        <v>0.57</v>
-      </c>
-      <c r="K9" s="43">
+      <c r="I9" s="42">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K9" s="42">
         <v>0.42</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="42">
         <v>3131.35</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="42">
         <v>0.17</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="42">
         <v>20.71</v>
       </c>
-      <c r="O9" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P9" s="43">
+      <c r="O9" s="42">
+        <v>0</v>
+      </c>
+      <c r="P9" s="42">
         <v>7245.3</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="42">
         <v>7362.84</v>
       </c>
-      <c r="R9" s="43">
+      <c r="R9" s="42">
         <v>-0.04</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="42">
         <v>0.16</v>
       </c>
-      <c r="T9" s="43">
+      <c r="T9" s="42">
         <v>1.02</v>
       </c>
-      <c r="U9" s="43">
-        <v>10480.7</v>
-      </c>
-      <c r="V9" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W9" s="43">
+      <c r="U9" s="42">
+        <v>10480.700000000001</v>
+      </c>
+      <c r="V9" s="42">
+        <v>0</v>
+      </c>
+      <c r="W9" s="42">
         <v>37.6</v>
       </c>
-      <c r="X9" s="43">
+      <c r="X9" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y9" s="43">
+      <c r="Y9" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z9" s="43">
+      <c r="Z9" s="42">
         <v>0.01</v>
       </c>
-      <c r="AA9" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AB9" s="43">
+      <c r="AA9" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB9" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC9" s="43">
+      <c r="AC9" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AD9" s="42" t="s">
+      <c r="AD9" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AE9" s="42" t="s">
+      <c r="AE9" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AF9" s="42" t="s">
+      <c r="AF9" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="AG9" s="43">
+      <c r="AG9" s="42">
         <v>3.04</v>
       </c>
-      <c r="AH9" s="43">
+      <c r="AH9" s="42">
         <v>-0.08</v>
       </c>
-      <c r="AI9" s="43">
+      <c r="AI9" s="42">
         <v>6.14</v>
       </c>
-      <c r="AJ9" s="43">
+      <c r="AJ9" s="42">
         <v>8.99</v>
       </c>
-      <c r="AK9" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL9" s="43">
+      <c r="AK9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL9" s="42">
         <v>252.07</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <v>63.08</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <v>-146.22</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>12.5</v>
       </c>
-      <c r="G10" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="43">
+      <c r="G10" s="42">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0</v>
+      </c>
+      <c r="J10" s="42">
         <v>0.02</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="42">
         <v>0.98</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="42">
         <v>3300.09</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="42">
         <v>0.18</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="42">
         <v>21.78</v>
       </c>
-      <c r="O10" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P10" s="43">
-        <v>7546.0</v>
-      </c>
-      <c r="Q10" s="43">
+      <c r="O10" s="42">
+        <v>0</v>
+      </c>
+      <c r="P10" s="42">
+        <v>7546</v>
+      </c>
+      <c r="Q10" s="42">
         <v>7856.35</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="42">
         <v>-0.09</v>
       </c>
-      <c r="S10" s="43">
-        <v>0.14</v>
-      </c>
-      <c r="T10" s="43">
+      <c r="S10" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T10" s="42">
         <v>1.01</v>
       </c>
-      <c r="U10" s="43">
+      <c r="U10" s="42">
         <v>11139.1</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="42">
         <v>0.01</v>
       </c>
-      <c r="W10" s="43">
+      <c r="W10" s="42">
         <v>48.2</v>
       </c>
-      <c r="X10" s="43">
+      <c r="X10" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y10" s="43">
+      <c r="Y10" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z10" s="43">
-        <v>-0.07</v>
-      </c>
-      <c r="AA10" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AB10" s="43">
+      <c r="Z10" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AA10" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC10" s="43">
+      <c r="AC10" s="42">
         <v>0.05</v>
       </c>
-      <c r="AD10" s="42" t="s">
+      <c r="AD10" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE10" s="42" t="s">
+      <c r="AE10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF10" s="42" t="s">
+      <c r="AF10" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG10" s="43">
+      <c r="AG10" s="42">
         <v>10.73</v>
       </c>
-      <c r="AH10" s="43">
+      <c r="AH10" s="42">
         <v>4.2</v>
       </c>
-      <c r="AI10" s="43">
+      <c r="AI10" s="42">
         <v>16.37</v>
       </c>
-      <c r="AJ10" s="43">
+      <c r="AJ10" s="42">
         <v>24.84</v>
       </c>
-      <c r="AK10" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AL10" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="42" t="s">
+      <c r="AK10" s="42">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <v>69.27</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="42">
         <v>-53.56</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>11.5</v>
       </c>
-      <c r="G11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="K11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="43">
+      <c r="G11" s="42">
+        <v>0</v>
+      </c>
+      <c r="H11" s="42">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <v>1</v>
+      </c>
+      <c r="K11" s="42">
+        <v>0</v>
+      </c>
+      <c r="L11" s="42">
         <v>1899.43</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="42">
         <v>0.17</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="42">
         <v>12.61</v>
       </c>
-      <c r="O11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P11" s="43">
-        <v>2338.7</v>
-      </c>
-      <c r="Q11" s="43">
+      <c r="O11" s="42">
+        <v>0</v>
+      </c>
+      <c r="P11" s="42">
+        <v>2338.6999999999998</v>
+      </c>
+      <c r="Q11" s="42">
         <v>3504.4</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="42">
         <v>-0.62</v>
       </c>
-      <c r="S11" s="43">
-        <v>0.57</v>
-      </c>
-      <c r="T11" s="43">
+      <c r="S11" s="42">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T11" s="42">
         <v>1.29</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="42">
         <v>5399.4</v>
       </c>
-      <c r="V11" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W11" s="43">
+      <c r="V11" s="42">
+        <v>0</v>
+      </c>
+      <c r="W11" s="42">
         <v>13.8</v>
       </c>
-      <c r="X11" s="43">
+      <c r="X11" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y11" s="43">
+      <c r="Y11" s="42">
         <v>0.03</v>
       </c>
-      <c r="Z11" s="43">
+      <c r="Z11" s="42">
         <v>0.08</v>
       </c>
-      <c r="AA11" s="43">
+      <c r="AA11" s="42">
         <v>0.13</v>
       </c>
-      <c r="AB11" s="43">
+      <c r="AB11" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC11" s="43">
+      <c r="AC11" s="42">
         <v>0.03</v>
       </c>
-      <c r="AD11" s="42" t="s">
+      <c r="AD11" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AE11" s="42" t="s">
+      <c r="AE11" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AF11" s="42" t="s">
+      <c r="AF11" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="AG11" s="43">
+      <c r="AG11" s="42">
         <v>5.03</v>
       </c>
-      <c r="AH11" s="43">
+      <c r="AH11" s="42">
         <v>2.79</v>
       </c>
-      <c r="AI11" s="43">
+      <c r="AI11" s="42">
         <v>8.41</v>
       </c>
-      <c r="AJ11" s="43">
+      <c r="AJ11" s="42">
         <v>11.83</v>
       </c>
-      <c r="AK11" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL11" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="42" t="s">
+      <c r="AK11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL11" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="42">
         <v>69.25</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <v>-53.52</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>11.5</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="42">
         <v>0.03</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="42">
         <v>0.04</v>
       </c>
-      <c r="I12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="43">
+      <c r="I12" s="42">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42">
         <v>0.93</v>
       </c>
-      <c r="K12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="43">
+      <c r="K12" s="42">
+        <v>0</v>
+      </c>
+      <c r="L12" s="42">
         <v>2549.17</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>0.16</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="42">
         <v>16.89</v>
       </c>
-      <c r="O12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P12" s="43">
-        <v>6086.0</v>
-      </c>
-      <c r="Q12" s="43">
+      <c r="O12" s="42">
+        <v>0</v>
+      </c>
+      <c r="P12" s="42">
+        <v>6086</v>
+      </c>
+      <c r="Q12" s="42">
         <v>6433.53</v>
       </c>
-      <c r="R12" s="43">
-        <v>-0.14</v>
-      </c>
-      <c r="S12" s="43">
+      <c r="R12" s="42">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="S12" s="42">
         <v>0.04</v>
       </c>
-      <c r="T12" s="43">
+      <c r="T12" s="42">
         <v>1.07</v>
       </c>
-      <c r="U12" s="43">
+      <c r="U12" s="42">
         <v>8973.9</v>
       </c>
-      <c r="V12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W12" s="43">
+      <c r="V12" s="42">
+        <v>0</v>
+      </c>
+      <c r="W12" s="42">
         <v>24.9</v>
       </c>
-      <c r="X12" s="43">
+      <c r="X12" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y12" s="43">
+      <c r="Y12" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z12" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AA12" s="43">
+      <c r="Z12" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA12" s="42">
         <v>0.09</v>
       </c>
-      <c r="AB12" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AC12" s="43">
+      <c r="AB12" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="42">
         <v>0.01</v>
       </c>
-      <c r="AD12" s="42" t="s">
+      <c r="AD12" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AE12" s="42" t="s">
+      <c r="AE12" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AF12" s="42" t="s">
+      <c r="AF12" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="AG12" s="43">
+      <c r="AG12" s="42">
         <v>5.03</v>
       </c>
-      <c r="AH12" s="43">
+      <c r="AH12" s="42">
         <v>2.79</v>
       </c>
-      <c r="AI12" s="43">
+      <c r="AI12" s="42">
         <v>8.41</v>
       </c>
-      <c r="AJ12" s="43">
+      <c r="AJ12" s="42">
         <v>11.83</v>
       </c>
-      <c r="AK12" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL12" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="42" t="s">
+      <c r="AK12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL12" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="42">
         <v>80.12</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="42">
         <v>-84.81</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>8.5</v>
       </c>
-      <c r="G13" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="43">
+      <c r="G13" s="42">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
         <v>0.32</v>
       </c>
-      <c r="I13" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="43">
+      <c r="I13" s="42">
+        <v>0</v>
+      </c>
+      <c r="J13" s="42">
         <v>0.05</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="42">
         <v>0.63</v>
       </c>
-      <c r="L13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="S13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="V13" s="43">
+      <c r="L13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="42">
         <v>0.01</v>
       </c>
-      <c r="W13" s="43">
+      <c r="W13" s="42">
         <v>56.5</v>
       </c>
-      <c r="X13" s="43">
+      <c r="X13" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y13" s="43">
+      <c r="Y13" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z13" s="43">
+      <c r="Z13" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AA13" s="43">
+      <c r="AA13" s="42">
         <v>-0.03</v>
       </c>
-      <c r="AB13" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AC13" s="43">
+      <c r="AB13" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="42">
         <v>-0.03</v>
       </c>
-      <c r="AD13" s="42" t="s">
+      <c r="AD13" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE13" s="42" t="s">
+      <c r="AE13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF13" s="42" t="s">
+      <c r="AF13" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG13" s="43">
+      <c r="AG13" s="42">
         <v>3.64</v>
       </c>
-      <c r="AH13" s="43">
+      <c r="AH13" s="42">
         <v>0.8</v>
       </c>
-      <c r="AI13" s="43">
+      <c r="AI13" s="42">
         <v>7.33</v>
       </c>
-      <c r="AJ13" s="43">
+      <c r="AJ13" s="42">
         <v>69.91</v>
       </c>
-      <c r="AK13" s="43">
+      <c r="AK13" s="42">
         <v>111.57</v>
       </c>
-      <c r="AL13" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="42" t="s">
+      <c r="AL13" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="42">
         <v>80.12</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="42">
         <v>-84.81</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <v>8.5</v>
       </c>
-      <c r="G14" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="43">
-        <v>0.29</v>
-      </c>
-      <c r="I14" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="43">
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0</v>
+      </c>
+      <c r="J14" s="42">
         <v>0.09</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="42">
         <v>0.62</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="42">
         <v>2797.17</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="42">
         <v>0.19</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="42">
         <v>17.79</v>
       </c>
-      <c r="O14" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P14" s="43">
-        <v>3979.0</v>
-      </c>
-      <c r="Q14" s="43">
+      <c r="O14" s="42">
+        <v>0</v>
+      </c>
+      <c r="P14" s="42">
+        <v>3979</v>
+      </c>
+      <c r="Q14" s="42">
         <v>4034.18</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="42">
         <v>-0.02</v>
       </c>
-      <c r="S14" s="43">
+      <c r="S14" s="42">
         <v>0.18</v>
       </c>
-      <c r="T14" s="43">
+      <c r="T14" s="42">
         <v>1.01</v>
       </c>
-      <c r="U14" s="43">
-        <v>6758.0</v>
-      </c>
-      <c r="V14" s="43">
+      <c r="U14" s="42">
+        <v>6758</v>
+      </c>
+      <c r="V14" s="42">
         <v>0.03</v>
       </c>
-      <c r="W14" s="43">
+      <c r="W14" s="42">
         <v>311.25</v>
       </c>
-      <c r="X14" s="43">
+      <c r="X14" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y14" s="43">
+      <c r="Y14" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z14" s="43">
+      <c r="Z14" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AA14" s="43">
+      <c r="AA14" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AB14" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AC14" s="43">
+      <c r="AB14" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="42">
         <v>-0.04</v>
       </c>
-      <c r="AD14" s="42" t="s">
+      <c r="AD14" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE14" s="42" t="s">
+      <c r="AE14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF14" s="42" t="s">
+      <c r="AF14" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG14" s="43">
+      <c r="AG14" s="42">
         <v>3.64</v>
       </c>
-      <c r="AH14" s="43">
+      <c r="AH14" s="42">
         <v>0.8</v>
       </c>
-      <c r="AI14" s="43">
+      <c r="AI14" s="42">
         <v>7.33</v>
       </c>
-      <c r="AJ14" s="43">
+      <c r="AJ14" s="42">
         <v>69.91</v>
       </c>
-      <c r="AK14" s="43">
+      <c r="AK14" s="42">
         <v>111.57</v>
       </c>
-      <c r="AL14" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="42" t="s">
+      <c r="AL14" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="42">
         <v>49.95</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <v>-122.99</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>10.5</v>
       </c>
-      <c r="G15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="J15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="43">
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+      <c r="H15" s="42">
+        <v>0</v>
+      </c>
+      <c r="I15" s="42">
+        <v>1</v>
+      </c>
+      <c r="J15" s="42">
+        <v>0</v>
+      </c>
+      <c r="K15" s="42">
+        <v>0</v>
+      </c>
+      <c r="L15" s="42">
         <v>1388.7</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="42">
         <v>0.15</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="42">
         <v>8.1</v>
       </c>
-      <c r="O15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P15" s="43">
+      <c r="O15" s="42">
+        <v>0</v>
+      </c>
+      <c r="P15" s="42">
         <v>1553.11</v>
       </c>
-      <c r="Q15" s="43">
-        <v>2154.99</v>
-      </c>
-      <c r="R15" s="43">
+      <c r="Q15" s="42">
+        <v>2154.9899999999998</v>
+      </c>
+      <c r="R15" s="42">
         <v>-0.47</v>
       </c>
-      <c r="S15" s="43">
-        <v>0.55</v>
-      </c>
-      <c r="T15" s="43">
+      <c r="S15" s="42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T15" s="42">
         <v>1.24</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="42">
         <v>3422.33</v>
       </c>
-      <c r="V15" s="43">
+      <c r="V15" s="42">
         <v>0.08</v>
       </c>
-      <c r="W15" s="43">
+      <c r="W15" s="42">
         <v>775.89</v>
       </c>
-      <c r="X15" s="43">
+      <c r="X15" s="42">
         <v>0.31</v>
       </c>
-      <c r="Y15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z15" s="43">
+      <c r="Y15" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="42">
         <v>0.03</v>
       </c>
-      <c r="AA15" s="43">
+      <c r="AA15" s="42">
         <v>0.01</v>
       </c>
-      <c r="AB15" s="43">
+      <c r="AB15" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC15" s="43">
+      <c r="AC15" s="42">
         <v>-0.09</v>
       </c>
-      <c r="AD15" s="42" t="s">
+      <c r="AD15" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="AE15" s="42" t="s">
+      <c r="AE15" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="AF15" s="42" t="s">
+      <c r="AF15" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="AG15" s="43">
+      <c r="AG15" s="42">
         <v>12.09</v>
       </c>
-      <c r="AH15" s="43">
+      <c r="AH15" s="42">
         <v>8.74</v>
       </c>
-      <c r="AI15" s="43">
+      <c r="AI15" s="42">
         <v>14.71</v>
       </c>
-      <c r="AJ15" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AK15" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AL15" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="42" t="s">
+      <c r="AJ15" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AK15" s="42">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="43">
-        <v>76.43</v>
-      </c>
-      <c r="E16" s="43">
+      <c r="D16" s="45">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="E16" s="45">
         <v>-82.91</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="45">
         <v>9.5</v>
       </c>
-      <c r="G16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="43">
+      <c r="G16" s="45">
+        <v>0</v>
+      </c>
+      <c r="H16" s="45">
         <v>0.86</v>
       </c>
-      <c r="I16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="43">
-        <v>0.14</v>
-      </c>
-      <c r="L16" s="43">
-        <v>2809.0</v>
-      </c>
-      <c r="M16" s="43">
+      <c r="I16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="45">
+        <v>0</v>
+      </c>
+      <c r="K16" s="45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L16" s="45">
+        <v>2809</v>
+      </c>
+      <c r="M16" s="45">
         <v>0.22</v>
       </c>
-      <c r="N16" s="43">
-        <v>18.56</v>
-      </c>
-      <c r="O16" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P16" s="43">
-        <v>2137.0</v>
-      </c>
-      <c r="Q16" s="43">
-        <v>2277.0</v>
-      </c>
-      <c r="R16" s="43">
+      <c r="N16" s="45">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="O16" s="45">
+        <v>0</v>
+      </c>
+      <c r="P16" s="45">
+        <v>2137</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>2277</v>
+      </c>
+      <c r="R16" s="45">
         <v>-0.05</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="45">
         <v>0.08</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T16" s="45">
         <v>1.03</v>
       </c>
-      <c r="U16" s="43">
-        <v>5071.0</v>
-      </c>
-      <c r="V16" s="43">
+      <c r="U16" s="45">
+        <v>5071</v>
+      </c>
+      <c r="V16" s="45">
         <v>0.01</v>
       </c>
-      <c r="W16" s="43">
+      <c r="W16" s="45">
         <v>82.5</v>
       </c>
-      <c r="X16" s="43">
+      <c r="X16" s="45">
         <v>-0.01</v>
       </c>
-      <c r="Y16" s="43">
+      <c r="Y16" s="45">
         <v>0.02</v>
       </c>
-      <c r="Z16" s="43">
+      <c r="Z16" s="45">
         <v>0.03</v>
       </c>
-      <c r="AA16" s="43">
+      <c r="AA16" s="45">
         <v>-0.1</v>
       </c>
-      <c r="AB16" s="43">
+      <c r="AB16" s="45">
         <v>-0.01</v>
       </c>
-      <c r="AC16" s="43">
+      <c r="AC16" s="45">
         <v>-0.02</v>
       </c>
-      <c r="AD16" s="42" t="s">
+      <c r="AD16" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="AE16" s="42" t="s">
+      <c r="AE16" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="AF16" s="42" t="s">
+      <c r="AF16" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="AG16" s="43">
+      <c r="AG16" s="45">
         <v>2.31</v>
       </c>
-      <c r="AH16" s="43">
-        <v>-0.28</v>
-      </c>
-      <c r="AI16" s="43">
-        <v>4.89</v>
-      </c>
-      <c r="AJ16" s="43">
+      <c r="AH16" s="45">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AI16" s="45">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="AJ16" s="45">
         <v>11.86</v>
       </c>
-      <c r="AK16" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL16" s="43">
+      <c r="AK16" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL16" s="45">
         <v>158.68</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="42" t="s">
+    <row r="17" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="42">
         <v>81.83</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="42">
         <v>-71.34</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <v>5.5</v>
       </c>
-      <c r="G17" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="G17" s="42">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
         <v>0.63</v>
       </c>
-      <c r="I17" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="43">
+      <c r="I17" s="42">
+        <v>0</v>
+      </c>
+      <c r="J17" s="42">
+        <v>0</v>
+      </c>
+      <c r="K17" s="42">
         <v>0.37</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="42">
         <v>3033.65</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="42">
         <v>0.17</v>
       </c>
-      <c r="N17" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="O17" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P17" s="43">
+      <c r="N17" s="42">
+        <v>20</v>
+      </c>
+      <c r="O17" s="42">
+        <v>0</v>
+      </c>
+      <c r="P17" s="42">
         <v>7212.5</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="42">
         <v>7402.34</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="42">
         <v>-0.06</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="42">
         <v>0.1</v>
       </c>
-      <c r="T17" s="43">
+      <c r="T17" s="42">
         <v>1.03</v>
       </c>
-      <c r="U17" s="43">
-        <v>10418.2</v>
-      </c>
-      <c r="V17" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W17" s="43">
-        <v>44.0</v>
-      </c>
-      <c r="X17" s="43">
+      <c r="U17" s="42">
+        <v>10418.200000000001</v>
+      </c>
+      <c r="V17" s="42">
+        <v>0</v>
+      </c>
+      <c r="W17" s="42">
+        <v>44</v>
+      </c>
+      <c r="X17" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y17" s="43">
+      <c r="Y17" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z17" s="43">
+      <c r="Z17" s="42">
         <v>0.01</v>
       </c>
-      <c r="AA17" s="43">
-        <v>-0.07</v>
-      </c>
-      <c r="AB17" s="43">
+      <c r="AA17" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AB17" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC17" s="43">
+      <c r="AC17" s="42">
         <v>-0.03</v>
       </c>
-      <c r="AD17" s="42" t="s">
+      <c r="AD17" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AE17" s="42" t="s">
+      <c r="AE17" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="AF17" s="42" t="s">
+      <c r="AF17" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AG17" s="43">
+      <c r="AG17" s="42">
         <v>1.97</v>
       </c>
-      <c r="AH17" s="43">
+      <c r="AH17" s="42">
         <v>-0.64</v>
       </c>
-      <c r="AI17" s="43">
-        <v>4.64</v>
-      </c>
-      <c r="AJ17" s="43">
+      <c r="AI17" s="42">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AJ17" s="42">
         <v>7.88</v>
       </c>
-      <c r="AK17" s="43">
+      <c r="AK17" s="42">
         <v>89.43</v>
       </c>
-      <c r="AL17" s="43">
+      <c r="AL17" s="42">
         <v>234.57</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="42" t="s">
+    <row r="18" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="43">
-        <v>69.21</v>
-      </c>
-      <c r="E18" s="43">
+      <c r="D18" s="42">
+        <v>69.209999999999994</v>
+      </c>
+      <c r="E18" s="42">
         <v>-51.11</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <v>9.5</v>
       </c>
-      <c r="G18" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="43">
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="42">
         <v>0.22</v>
       </c>
-      <c r="I18" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="43">
+      <c r="I18" s="42">
+        <v>0</v>
+      </c>
+      <c r="J18" s="42">
         <v>0.77</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="42">
         <v>0.01</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="42">
         <v>2804.39</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="42">
         <v>0.17</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="42">
         <v>18.55</v>
       </c>
-      <c r="O18" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P18" s="43">
+      <c r="O18" s="42">
+        <v>0</v>
+      </c>
+      <c r="P18" s="42">
         <v>5754.78</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="42">
         <v>6098.19</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="42">
         <v>-0.12</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="42">
         <v>0.22</v>
       </c>
-      <c r="T18" s="43">
+      <c r="T18" s="42">
         <v>1.04</v>
       </c>
-      <c r="U18" s="43">
+      <c r="U18" s="42">
         <v>8890.89</v>
       </c>
-      <c r="V18" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W18" s="43">
+      <c r="V18" s="42">
+        <v>0</v>
+      </c>
+      <c r="W18" s="42">
         <v>28.33</v>
       </c>
-      <c r="X18" s="43">
+      <c r="X18" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y18" s="43">
+      <c r="Y18" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z18" s="43">
+      <c r="Z18" s="42">
         <v>0.06</v>
       </c>
-      <c r="AA18" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AB18" s="43">
+      <c r="AA18" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB18" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC18" s="43">
+      <c r="AC18" s="42">
         <v>0.01</v>
       </c>
-      <c r="AD18" s="42" t="s">
+      <c r="AD18" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AE18" s="42" t="s">
+      <c r="AE18" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AF18" s="42" t="s">
+      <c r="AF18" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="AG18" s="43">
+      <c r="AG18" s="42">
         <v>5.03</v>
       </c>
-      <c r="AH18" s="43">
+      <c r="AH18" s="42">
         <v>2.79</v>
       </c>
-      <c r="AI18" s="43">
+      <c r="AI18" s="42">
         <v>8.41</v>
       </c>
-      <c r="AJ18" s="43">
+      <c r="AJ18" s="42">
         <v>11.83</v>
       </c>
-      <c r="AK18" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL18" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="42" t="s">
+      <c r="AK18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL18" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="42">
         <v>68.62</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="42">
         <v>-149.31</v>
       </c>
-      <c r="F19" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="G19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="43">
+      <c r="F19" s="42">
+        <v>20</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0</v>
+      </c>
+      <c r="H19" s="42">
+        <v>0</v>
+      </c>
+      <c r="I19" s="42">
+        <v>0</v>
+      </c>
+      <c r="J19" s="42">
         <v>0.01</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="42">
         <v>0.99</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="42">
         <v>3533.8</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="42">
         <v>0.18</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="42">
         <v>23.39</v>
       </c>
-      <c r="O19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P19" s="43">
-        <v>8414.3</v>
-      </c>
-      <c r="Q19" s="43">
-        <v>8855.46</v>
-      </c>
-      <c r="R19" s="43">
+      <c r="O19" s="42">
+        <v>0</v>
+      </c>
+      <c r="P19" s="42">
+        <v>8414.2999999999993</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>8855.4599999999991</v>
+      </c>
+      <c r="R19" s="42">
         <v>-0.13</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="42">
         <v>0.06</v>
       </c>
-      <c r="T19" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="U19" s="43">
+      <c r="T19" s="42">
+        <v>1</v>
+      </c>
+      <c r="U19" s="42">
         <v>12375.7</v>
       </c>
-      <c r="V19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W19" s="43">
-        <v>30.0</v>
-      </c>
-      <c r="X19" s="43">
+      <c r="V19" s="42">
+        <v>0</v>
+      </c>
+      <c r="W19" s="42">
+        <v>30</v>
+      </c>
+      <c r="X19" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z19" s="43">
-        <v>-0.07</v>
-      </c>
-      <c r="AA19" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AB19" s="43">
+      <c r="Y19" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AA19" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC19" s="43">
+      <c r="AC19" s="42">
         <v>-0.03</v>
       </c>
-      <c r="AD19" s="42" t="s">
+      <c r="AD19" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE19" s="42" t="s">
+      <c r="AE19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF19" s="42" t="s">
+      <c r="AF19" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG19" s="43">
+      <c r="AG19" s="42">
         <v>8.93</v>
       </c>
-      <c r="AH19" s="43">
-        <v>5.1</v>
-      </c>
-      <c r="AI19" s="43">
+      <c r="AH19" s="42">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AI19" s="42">
         <v>12.48</v>
       </c>
-      <c r="AJ19" s="43">
+      <c r="AJ19" s="42">
         <v>21.53</v>
       </c>
-      <c r="AK19" s="43">
+      <c r="AK19" s="42">
         <v>17.95</v>
       </c>
-      <c r="AL19" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="42" t="s">
+      <c r="AL19" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="42">
         <v>63.75</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="42">
         <v>-68.52</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <v>8.5</v>
       </c>
-      <c r="G20" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="43">
+      <c r="G20" s="42">
+        <v>0</v>
+      </c>
+      <c r="H20" s="42">
         <v>0.02</v>
       </c>
-      <c r="I20" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="43">
+      <c r="I20" s="42">
+        <v>0</v>
+      </c>
+      <c r="J20" s="42">
         <v>0.71</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="42">
         <v>0.27</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="42">
         <v>3038.73</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="42">
         <v>0.17</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="42">
         <v>19.82</v>
       </c>
-      <c r="O20" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P20" s="43">
+      <c r="O20" s="42">
+        <v>0</v>
+      </c>
+      <c r="P20" s="42">
         <v>7117.22</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="42">
         <v>7137.21</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="42">
         <v>-0.01</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="42">
         <v>0.09</v>
       </c>
-      <c r="T20" s="43">
+      <c r="T20" s="42">
         <v>1.02</v>
       </c>
-      <c r="U20" s="43">
-        <v>10140.22</v>
-      </c>
-      <c r="V20" s="43">
+      <c r="U20" s="42">
+        <v>10140.219999999999</v>
+      </c>
+      <c r="V20" s="42">
         <v>0.01</v>
       </c>
-      <c r="W20" s="43">
+      <c r="W20" s="42">
         <v>116.78</v>
       </c>
-      <c r="X20" s="43">
+      <c r="X20" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y20" s="43">
+      <c r="Y20" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="42">
         <v>0.02</v>
       </c>
-      <c r="AA20" s="43">
+      <c r="AA20" s="42">
         <v>0.08</v>
       </c>
-      <c r="AB20" s="43">
+      <c r="AB20" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC20" s="43">
+      <c r="AC20" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AD20" s="42" t="s">
+      <c r="AD20" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AE20" s="42" t="s">
+      <c r="AE20" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AF20" s="42" t="s">
+      <c r="AF20" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="AG20" s="43">
+      <c r="AG20" s="42">
         <v>6.68</v>
       </c>
-      <c r="AH20" s="43">
+      <c r="AH20" s="42">
         <v>2.96</v>
       </c>
-      <c r="AI20" s="43">
+      <c r="AI20" s="42">
         <v>10.34</v>
       </c>
-      <c r="AJ20" s="43">
+      <c r="AJ20" s="42">
         <v>13.41</v>
       </c>
-      <c r="AK20" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL20" s="43">
+      <c r="AK20" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL20" s="42">
         <v>346.52</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="42" t="s">
+    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="42">
         <v>67.56</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="42">
         <v>-64.03</v>
       </c>
-      <c r="F21" s="43">
-        <v>13.0</v>
-      </c>
-      <c r="G21" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="43">
+      <c r="F21" s="42">
+        <v>13</v>
+      </c>
+      <c r="G21" s="42">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
         <v>0.1</v>
       </c>
-      <c r="I21" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="43">
+      <c r="I21" s="42">
+        <v>0</v>
+      </c>
+      <c r="J21" s="42">
         <v>0.73</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="42">
         <v>0.16</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="42">
         <v>3032.3</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="42">
         <v>0.17</v>
       </c>
-      <c r="N21" s="43">
-        <v>19.92</v>
-      </c>
-      <c r="O21" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P21" s="43">
+      <c r="N21" s="42">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="O21" s="42">
+        <v>0</v>
+      </c>
+      <c r="P21" s="42">
         <v>6913.89</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="42">
         <v>7109.46</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="42">
         <v>-0.06</v>
       </c>
-      <c r="S21" s="43">
+      <c r="S21" s="42">
         <v>0.08</v>
       </c>
-      <c r="T21" s="43">
+      <c r="T21" s="42">
         <v>1.02</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="42">
         <v>10118.33</v>
       </c>
-      <c r="V21" s="43">
+      <c r="V21" s="42">
         <v>0.01</v>
       </c>
-      <c r="W21" s="43">
+      <c r="W21" s="42">
         <v>72.22</v>
       </c>
-      <c r="X21" s="43">
+      <c r="X21" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y21" s="43">
+      <c r="Y21" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z21" s="43">
+      <c r="Z21" s="42">
         <v>0.03</v>
       </c>
-      <c r="AA21" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AB21" s="43">
+      <c r="AA21" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB21" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC21" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AD21" s="42" t="s">
+      <c r="AC21" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AE21" s="42" t="s">
+      <c r="AE21" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AF21" s="42" t="s">
+      <c r="AF21" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="AG21" s="43">
+      <c r="AG21" s="42">
         <v>3.01</v>
       </c>
-      <c r="AH21" s="43">
+      <c r="AH21" s="42">
         <v>0.1</v>
       </c>
-      <c r="AI21" s="43">
+      <c r="AI21" s="42">
         <v>5.89</v>
       </c>
-      <c r="AJ21" s="43">
+      <c r="AJ21" s="42">
         <v>7.66</v>
       </c>
-      <c r="AK21" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL21" s="43">
+      <c r="AK21" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL21" s="42">
         <v>72.34</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="42">
         <v>60.97</v>
       </c>
-      <c r="E22" s="43">
-        <v>-138.42</v>
-      </c>
-      <c r="F22" s="43">
-        <v>12.0</v>
-      </c>
-      <c r="G22" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="43">
+      <c r="E22" s="42">
+        <v>-138.41999999999999</v>
+      </c>
+      <c r="F22" s="42">
+        <v>12</v>
+      </c>
+      <c r="G22" s="42">
+        <v>0</v>
+      </c>
+      <c r="H22" s="42">
         <v>0.01</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="42">
         <v>0.34</v>
       </c>
-      <c r="J22" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="43">
+      <c r="J22" s="42">
+        <v>0</v>
+      </c>
+      <c r="K22" s="42">
         <v>0.64</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="42">
         <v>5273.59</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="42">
         <v>0.2</v>
       </c>
-      <c r="N22" s="43">
+      <c r="N22" s="42">
         <v>34.61</v>
       </c>
-      <c r="O22" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P22" s="43">
+      <c r="O22" s="42">
+        <v>0</v>
+      </c>
+      <c r="P22" s="42">
         <v>9781.5</v>
       </c>
-      <c r="Q22" s="43">
-        <v>10282.13</v>
-      </c>
-      <c r="R22" s="43">
+      <c r="Q22" s="42">
+        <v>10282.129999999999</v>
+      </c>
+      <c r="R22" s="42">
         <v>-0.1</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="42">
         <v>0.47</v>
       </c>
-      <c r="T22" s="43">
+      <c r="T22" s="42">
         <v>0.98</v>
       </c>
-      <c r="U22" s="43">
+      <c r="U22" s="42">
         <v>15511.4</v>
       </c>
-      <c r="V22" s="43">
+      <c r="V22" s="42">
         <v>0.01</v>
       </c>
-      <c r="W22" s="43">
+      <c r="W22" s="42">
         <v>89.9</v>
       </c>
-      <c r="X22" s="43">
+      <c r="X22" s="42">
         <v>0.09</v>
       </c>
-      <c r="Y22" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z22" s="43">
+      <c r="Y22" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="42">
         <v>-0.06</v>
       </c>
-      <c r="AA22" s="43">
+      <c r="AA22" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AB22" s="43">
+      <c r="AB22" s="42">
         <v>0.02</v>
       </c>
-      <c r="AC22" s="43">
+      <c r="AC22" s="42">
         <v>0.21</v>
       </c>
-      <c r="AD22" s="42" t="s">
+      <c r="AD22" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE22" s="42" t="s">
+      <c r="AE22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF22" s="42" t="s">
+      <c r="AF22" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG22" s="43">
+      <c r="AG22" s="42">
         <v>11.72</v>
       </c>
-      <c r="AH22" s="43">
+      <c r="AH22" s="42">
         <v>4.78</v>
       </c>
-      <c r="AI22" s="43">
-        <v>18.65</v>
-      </c>
-      <c r="AJ22" s="43">
+      <c r="AI22" s="42">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="AJ22" s="42">
         <v>16.79</v>
       </c>
-      <c r="AK22" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL22" s="43">
+      <c r="AK22" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL22" s="42">
         <v>205.98</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="45">
         <v>67.8</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="45">
         <v>-115.23</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="45">
         <v>10.5</v>
       </c>
-      <c r="G23" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="43">
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="45">
+        <v>0</v>
+      </c>
+      <c r="J23" s="45">
         <v>0.16</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K23" s="45">
         <v>0.84</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="45">
         <v>3246.93</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="45">
         <v>0.18</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="45">
         <v>21.35</v>
       </c>
-      <c r="O23" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P23" s="43">
-        <v>6367.0</v>
-      </c>
-      <c r="Q23" s="43">
+      <c r="O23" s="45">
+        <v>0</v>
+      </c>
+      <c r="P23" s="45">
+        <v>6367</v>
+      </c>
+      <c r="Q23" s="45">
         <v>6453.43</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="45">
         <v>-0.03</v>
       </c>
-      <c r="S23" s="43">
+      <c r="S23" s="45">
         <v>0.05</v>
       </c>
-      <c r="T23" s="43">
+      <c r="T23" s="45">
         <v>1.01</v>
       </c>
-      <c r="U23" s="43">
+      <c r="U23" s="45">
         <v>9675.67</v>
       </c>
-      <c r="V23" s="43">
+      <c r="V23" s="45">
         <v>0.01</v>
       </c>
-      <c r="W23" s="43">
+      <c r="W23" s="45">
         <v>60.67</v>
       </c>
-      <c r="X23" s="43">
+      <c r="X23" s="45">
         <v>-0.01</v>
       </c>
-      <c r="Y23" s="43">
+      <c r="Y23" s="45">
         <v>0.01</v>
       </c>
-      <c r="Z23" s="43">
+      <c r="Z23" s="45">
         <v>-0.04</v>
       </c>
-      <c r="AA23" s="43">
+      <c r="AA23" s="45">
         <v>0.02</v>
       </c>
-      <c r="AB23" s="43">
+      <c r="AB23" s="45">
         <v>0.01</v>
       </c>
-      <c r="AC23" s="43">
+      <c r="AC23" s="45">
         <v>-0.03</v>
       </c>
-      <c r="AD23" s="42" t="s">
+      <c r="AD23" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="AE23" s="42" t="s">
+      <c r="AE23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AF23" s="42" t="s">
+      <c r="AF23" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="AG23" s="43">
-        <v>10.12</v>
-      </c>
-      <c r="AH23" s="43">
+      <c r="AG23" s="45">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="AH23" s="45">
         <v>5.67</v>
       </c>
-      <c r="AI23" s="43">
-        <v>16.06</v>
-      </c>
-      <c r="AJ23" s="43">
+      <c r="AI23" s="45">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="AJ23" s="45">
         <v>9.99</v>
       </c>
-      <c r="AK23" s="43">
+      <c r="AK23" s="45">
         <v>12.22</v>
       </c>
-      <c r="AL23" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="42" t="s">
+      <c r="AL23" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="43">
-        <v>68.35</v>
-      </c>
-      <c r="E24" s="43">
+      <c r="D24" s="42">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="E24" s="42">
         <v>18.5</v>
       </c>
-      <c r="F24" s="43">
-        <v>10.0</v>
-      </c>
-      <c r="G24" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="43">
+      <c r="F24" s="42">
+        <v>10</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0</v>
+      </c>
+      <c r="H24" s="42">
         <v>0.93</v>
       </c>
-      <c r="I24" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="43">
+      <c r="I24" s="42">
+        <v>0</v>
+      </c>
+      <c r="J24" s="42">
         <v>0.06</v>
       </c>
-      <c r="K24" s="43">
+      <c r="K24" s="42">
         <v>0.01</v>
       </c>
-      <c r="L24" s="43">
+      <c r="L24" s="42">
         <v>2729.64</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="42">
         <v>0.17</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="42">
         <v>18.05</v>
       </c>
-      <c r="O24" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P24" s="43">
-        <v>5618.0</v>
-      </c>
-      <c r="Q24" s="43">
+      <c r="O24" s="42">
+        <v>0</v>
+      </c>
+      <c r="P24" s="42">
+        <v>5618</v>
+      </c>
+      <c r="Q24" s="42">
         <v>6087.07</v>
       </c>
-      <c r="R24" s="43">
+      <c r="R24" s="42">
         <v>-0.17</v>
       </c>
-      <c r="S24" s="43">
+      <c r="S24" s="42">
         <v>0.24</v>
       </c>
-      <c r="T24" s="43">
+      <c r="T24" s="42">
         <v>1.06</v>
       </c>
-      <c r="U24" s="43">
+      <c r="U24" s="42">
         <v>8804.6</v>
       </c>
-      <c r="V24" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W24" s="43">
+      <c r="V24" s="42">
+        <v>0</v>
+      </c>
+      <c r="W24" s="42">
         <v>30.7</v>
       </c>
-      <c r="X24" s="43">
+      <c r="X24" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y24" s="43">
+      <c r="Y24" s="42">
         <v>0.03</v>
       </c>
-      <c r="Z24" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AA24" s="43">
+      <c r="Z24" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA24" s="42">
         <v>-0.05</v>
       </c>
-      <c r="AB24" s="43">
+      <c r="AB24" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC24" s="43">
+      <c r="AC24" s="42">
         <v>0.03</v>
       </c>
-      <c r="AD24" s="42" t="s">
+      <c r="AD24" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AE24" s="42" t="s">
+      <c r="AE24" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="AF24" s="42" t="s">
+      <c r="AF24" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AG24" s="43">
+      <c r="AG24" s="42">
         <v>9.19</v>
       </c>
-      <c r="AH24" s="43">
+      <c r="AH24" s="42">
         <v>4.55</v>
       </c>
-      <c r="AI24" s="43">
+      <c r="AI24" s="42">
         <v>13.46</v>
       </c>
-      <c r="AJ24" s="43">
-        <v>73.0</v>
-      </c>
-      <c r="AK24" s="43">
+      <c r="AJ24" s="42">
+        <v>73</v>
+      </c>
+      <c r="AK24" s="42">
         <v>432.4</v>
       </c>
-      <c r="AL24" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="42" t="s">
+      <c r="AL24" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="45">
         <v>78.22</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="45">
         <v>15.63</v>
       </c>
-      <c r="F25" s="43">
-        <v>13.0</v>
-      </c>
-      <c r="G25" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="43">
+      <c r="F25" s="45">
+        <v>13</v>
+      </c>
+      <c r="G25" s="45">
+        <v>0</v>
+      </c>
+      <c r="H25" s="45">
         <v>0.9</v>
       </c>
-      <c r="I25" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="43">
+      <c r="I25" s="45">
+        <v>0</v>
+      </c>
+      <c r="J25" s="45">
         <v>0.1</v>
       </c>
-      <c r="K25" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="43">
+      <c r="K25" s="45">
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
         <v>2763.61</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="45">
         <v>0.17</v>
       </c>
-      <c r="N25" s="43">
-        <v>18.17</v>
-      </c>
-      <c r="O25" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P25" s="43">
+      <c r="N25" s="45">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="O25" s="45">
+        <v>0</v>
+      </c>
+      <c r="P25" s="45">
         <v>6677.2</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="45">
         <v>6769.78</v>
       </c>
-      <c r="R25" s="43">
+      <c r="R25" s="45">
         <v>-0.03</v>
       </c>
-      <c r="S25" s="43">
+      <c r="S25" s="45">
         <v>0.09</v>
       </c>
-      <c r="T25" s="43">
+      <c r="T25" s="45">
         <v>1.06</v>
       </c>
-      <c r="U25" s="43">
+      <c r="U25" s="45">
         <v>9512.6</v>
       </c>
-      <c r="V25" s="43">
+      <c r="V25" s="45">
         <v>0.01</v>
       </c>
-      <c r="W25" s="43">
+      <c r="W25" s="45">
         <v>55.5</v>
       </c>
-      <c r="X25" s="43">
+      <c r="X25" s="45">
         <v>-0.01</v>
       </c>
-      <c r="Y25" s="43">
+      <c r="Y25" s="45">
         <v>0.02</v>
       </c>
-      <c r="Z25" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AA25" s="43">
+      <c r="Z25" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA25" s="45">
         <v>-0.04</v>
       </c>
-      <c r="AB25" s="43">
+      <c r="AB25" s="45">
         <v>-0.01</v>
       </c>
-      <c r="AC25" s="43">
+      <c r="AC25" s="45">
         <v>0.02</v>
       </c>
-      <c r="AD25" s="42" t="s">
+      <c r="AD25" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="AE25" s="42" t="s">
+      <c r="AE25" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="AF25" s="42" t="s">
+      <c r="AF25" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="AG25" s="43">
+      <c r="AG25" s="45">
         <v>5.9</v>
       </c>
-      <c r="AH25" s="43">
-        <v>4.4</v>
-      </c>
-      <c r="AI25" s="43">
+      <c r="AH25" s="45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI25" s="45">
         <v>7.88</v>
       </c>
-      <c r="AJ25" s="43">
+      <c r="AJ25" s="45">
         <v>2.39</v>
       </c>
-      <c r="AK25" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AL25" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="42" t="s">
+      <c r="AK25" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="42">
         <v>68.63</v>
       </c>
-      <c r="E26" s="43">
-        <v>-149.64</v>
-      </c>
-      <c r="F26" s="43">
-        <v>12.0</v>
-      </c>
-      <c r="G26" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="43">
+      <c r="E26" s="42">
+        <v>-149.63999999999999</v>
+      </c>
+      <c r="F26" s="42">
+        <v>12</v>
+      </c>
+      <c r="G26" s="42">
+        <v>0</v>
+      </c>
+      <c r="H26" s="42">
         <v>0.01</v>
       </c>
-      <c r="I26" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="43">
+      <c r="I26" s="42">
+        <v>0</v>
+      </c>
+      <c r="J26" s="42">
         <v>0.01</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="42">
         <v>0.98</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="42">
         <v>3744.59</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="42">
         <v>0.18</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="42">
         <v>24.78</v>
       </c>
-      <c r="O26" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P26" s="43">
-        <v>8311.22</v>
-      </c>
-      <c r="Q26" s="43">
+      <c r="O26" s="42">
+        <v>0</v>
+      </c>
+      <c r="P26" s="42">
+        <v>8311.2199999999993</v>
+      </c>
+      <c r="Q26" s="42">
         <v>8905.99</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="42">
         <v>-0.16</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="42">
         <v>0.08</v>
       </c>
-      <c r="T26" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="U26" s="43">
+      <c r="T26" s="42">
+        <v>1</v>
+      </c>
+      <c r="U26" s="42">
         <v>12636.11</v>
       </c>
-      <c r="V26" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W26" s="43">
+      <c r="V26" s="42">
+        <v>0</v>
+      </c>
+      <c r="W26" s="42">
         <v>30.67</v>
       </c>
-      <c r="X26" s="43">
+      <c r="X26" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y26" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z26" s="43">
+      <c r="Y26" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="42">
         <v>-0.08</v>
       </c>
-      <c r="AA26" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AB26" s="43">
+      <c r="AA26" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC26" s="43">
+      <c r="AC26" s="42">
         <v>-0.03</v>
       </c>
-      <c r="AD26" s="42" t="s">
+      <c r="AD26" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE26" s="42" t="s">
+      <c r="AE26" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF26" s="42" t="s">
+      <c r="AF26" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG26" s="43">
+      <c r="AG26" s="42">
         <v>8.93</v>
       </c>
-      <c r="AH26" s="43">
-        <v>5.1</v>
-      </c>
-      <c r="AI26" s="43">
+      <c r="AH26" s="42">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AI26" s="42">
         <v>12.48</v>
       </c>
-      <c r="AJ26" s="43">
+      <c r="AJ26" s="42">
         <v>21.53</v>
       </c>
-      <c r="AK26" s="43">
+      <c r="AK26" s="42">
         <v>17.95</v>
       </c>
-      <c r="AL26" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="42" t="s">
+      <c r="AL26" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="43">
-        <v>65.4</v>
-      </c>
-      <c r="E27" s="43">
+      <c r="D27" s="42">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E27" s="42">
         <v>-145.97</v>
       </c>
-      <c r="F27" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="G27" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H27" s="43">
+      <c r="F27" s="42">
+        <v>20</v>
+      </c>
+      <c r="G27" s="42">
+        <v>0</v>
+      </c>
+      <c r="H27" s="42">
         <v>0.04</v>
       </c>
-      <c r="I27" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="43">
+      <c r="I27" s="42">
+        <v>0</v>
+      </c>
+      <c r="J27" s="42">
         <v>0.01</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="42">
         <v>0.95</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="42">
         <v>3486.72</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="42">
         <v>0.18</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="42">
         <v>23.05</v>
       </c>
-      <c r="O27" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P27" s="43">
+      <c r="O27" s="42">
+        <v>0</v>
+      </c>
+      <c r="P27" s="42">
         <v>8518.5</v>
       </c>
-      <c r="Q27" s="43">
-        <v>8705.28</v>
-      </c>
-      <c r="R27" s="43">
+      <c r="Q27" s="42">
+        <v>8705.2800000000007</v>
+      </c>
+      <c r="R27" s="42">
         <v>-0.05</v>
       </c>
-      <c r="S27" s="43">
+      <c r="S27" s="42">
         <v>0.06</v>
       </c>
-      <c r="T27" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="U27" s="43">
+      <c r="T27" s="42">
+        <v>1</v>
+      </c>
+      <c r="U27" s="42">
         <v>12176.5</v>
       </c>
-      <c r="V27" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W27" s="43">
+      <c r="V27" s="42">
+        <v>0</v>
+      </c>
+      <c r="W27" s="42">
         <v>33.9</v>
       </c>
-      <c r="X27" s="43">
+      <c r="X27" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y27" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z27" s="43">
+      <c r="Y27" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="42">
         <v>-0.06</v>
       </c>
-      <c r="AA27" s="43">
+      <c r="AA27" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AB27" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AC27" s="43">
+      <c r="AB27" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AD27" s="42" t="s">
+      <c r="AD27" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE27" s="42" t="s">
+      <c r="AE27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF27" s="42" t="s">
+      <c r="AF27" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG27" s="43">
+      <c r="AG27" s="42">
         <v>12.58</v>
       </c>
-      <c r="AH27" s="43">
+      <c r="AH27" s="42">
         <v>9.23</v>
       </c>
-      <c r="AI27" s="43">
-        <v>16.35</v>
-      </c>
-      <c r="AJ27" s="43">
+      <c r="AI27" s="42">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="AJ27" s="42">
         <v>22.86</v>
       </c>
-      <c r="AK27" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AL27" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="42" t="s">
+      <c r="AK27" s="42">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="42">
         <v>68.62</v>
       </c>
-      <c r="E28" s="43">
-        <v>-149.61</v>
-      </c>
-      <c r="F28" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="G28" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H28" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I28" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J28" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K28" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="L28" s="43">
+      <c r="E28" s="42">
+        <v>-149.61000000000001</v>
+      </c>
+      <c r="F28" s="42">
+        <v>20</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0</v>
+      </c>
+      <c r="H28" s="42">
+        <v>0</v>
+      </c>
+      <c r="I28" s="42">
+        <v>0</v>
+      </c>
+      <c r="J28" s="42">
+        <v>0</v>
+      </c>
+      <c r="K28" s="42">
+        <v>1</v>
+      </c>
+      <c r="L28" s="42">
         <v>3565.44</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="42">
         <v>0.17</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="42">
         <v>23.55</v>
       </c>
-      <c r="O28" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P28" s="43">
-        <v>8973.3</v>
-      </c>
-      <c r="Q28" s="43">
-        <v>9155.7</v>
-      </c>
-      <c r="R28" s="43">
+      <c r="O28" s="42">
+        <v>0</v>
+      </c>
+      <c r="P28" s="42">
+        <v>8973.2999999999993</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>9155.7000000000007</v>
+      </c>
+      <c r="R28" s="42">
         <v>-0.05</v>
       </c>
-      <c r="S28" s="43">
+      <c r="S28" s="42">
         <v>0.03</v>
       </c>
-      <c r="T28" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="U28" s="43">
+      <c r="T28" s="42">
+        <v>1</v>
+      </c>
+      <c r="U28" s="42">
         <v>12703.3</v>
       </c>
-      <c r="V28" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W28" s="43">
+      <c r="V28" s="42">
+        <v>0</v>
+      </c>
+      <c r="W28" s="42">
         <v>44.6</v>
       </c>
-      <c r="X28" s="43">
+      <c r="X28" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y28" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z28" s="43">
-        <v>-0.07</v>
-      </c>
-      <c r="AA28" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AB28" s="43">
+      <c r="Y28" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AA28" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC28" s="43">
+      <c r="AC28" s="42">
         <v>-0.03</v>
       </c>
-      <c r="AD28" s="42" t="s">
+      <c r="AD28" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE28" s="42" t="s">
+      <c r="AE28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF28" s="42" t="s">
+      <c r="AF28" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG28" s="43">
+      <c r="AG28" s="42">
         <v>8.93</v>
       </c>
-      <c r="AH28" s="43">
-        <v>5.1</v>
-      </c>
-      <c r="AI28" s="43">
+      <c r="AH28" s="42">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AI28" s="42">
         <v>12.48</v>
       </c>
-      <c r="AJ28" s="43">
+      <c r="AJ28" s="42">
         <v>21.53</v>
       </c>
-      <c r="AK28" s="43">
+      <c r="AK28" s="42">
         <v>17.95</v>
       </c>
-      <c r="AL28" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="42" t="s">
+      <c r="AL28" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="42">
         <v>61.21</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="42">
         <v>-138.28</v>
       </c>
-      <c r="F29" s="43">
-        <v>13.0</v>
-      </c>
-      <c r="G29" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H29" s="43">
+      <c r="F29" s="42">
+        <v>13</v>
+      </c>
+      <c r="G29" s="42">
+        <v>0</v>
+      </c>
+      <c r="H29" s="42">
         <v>0.03</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="42">
         <v>0.11</v>
       </c>
-      <c r="J29" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="43">
+      <c r="J29" s="42">
+        <v>0</v>
+      </c>
+      <c r="K29" s="42">
         <v>0.85</v>
       </c>
-      <c r="L29" s="43">
-        <v>4424.65</v>
-      </c>
-      <c r="M29" s="43">
+      <c r="L29" s="42">
+        <v>4424.6499999999996</v>
+      </c>
+      <c r="M29" s="42">
         <v>0.18</v>
       </c>
-      <c r="N29" s="43">
+      <c r="N29" s="42">
         <v>29.02</v>
       </c>
-      <c r="O29" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P29" s="43">
+      <c r="O29" s="42">
+        <v>0</v>
+      </c>
+      <c r="P29" s="42">
         <v>10462.89</v>
       </c>
-      <c r="Q29" s="43">
+      <c r="Q29" s="42">
         <v>10943.92</v>
       </c>
-      <c r="R29" s="43">
+      <c r="R29" s="42">
         <v>-0.11</v>
       </c>
-      <c r="S29" s="43">
+      <c r="S29" s="42">
         <v>-0.02</v>
       </c>
-      <c r="T29" s="43">
+      <c r="T29" s="42">
         <v>0.96</v>
       </c>
-      <c r="U29" s="43">
+      <c r="U29" s="42">
         <v>15330.56</v>
       </c>
-      <c r="V29" s="43">
+      <c r="V29" s="42">
         <v>0.01</v>
       </c>
-      <c r="W29" s="43">
+      <c r="W29" s="42">
         <v>80.56</v>
       </c>
-      <c r="X29" s="43">
+      <c r="X29" s="42">
         <v>0.02</v>
       </c>
-      <c r="Y29" s="43">
+      <c r="Y29" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z29" s="43">
-        <v>-0.07</v>
-      </c>
-      <c r="AA29" s="43">
+      <c r="Z29" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AA29" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AB29" s="43">
+      <c r="AB29" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC29" s="43">
+      <c r="AC29" s="42">
         <v>0.16</v>
       </c>
-      <c r="AD29" s="42" t="s">
+      <c r="AD29" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE29" s="42" t="s">
+      <c r="AE29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF29" s="42" t="s">
+      <c r="AF29" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG29" s="43">
+      <c r="AG29" s="42">
         <v>11.93</v>
       </c>
-      <c r="AH29" s="43">
+      <c r="AH29" s="42">
         <v>5.76</v>
       </c>
-      <c r="AI29" s="43">
+      <c r="AI29" s="42">
         <v>18.07</v>
       </c>
-      <c r="AJ29" s="43">
+      <c r="AJ29" s="42">
         <v>21.27</v>
       </c>
-      <c r="AK29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL29" s="43">
+      <c r="AK29" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL29" s="42">
         <v>347.39</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="43">
-        <v>69.82</v>
-      </c>
-      <c r="E30" s="43">
+      <c r="D30" s="42">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="E30" s="42">
         <v>-122.66</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <v>9.5</v>
       </c>
-      <c r="G30" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H30" s="43">
+      <c r="G30" s="42">
+        <v>0</v>
+      </c>
+      <c r="H30" s="42">
         <v>0.05</v>
       </c>
-      <c r="I30" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="43">
+      <c r="I30" s="42">
+        <v>0</v>
+      </c>
+      <c r="J30" s="42">
         <v>0.09</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="42">
         <v>0.86</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="42">
         <v>3081.83</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="42">
         <v>0.18</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="42">
         <v>20.21</v>
       </c>
-      <c r="O30" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P30" s="43">
+      <c r="O30" s="42">
+        <v>0</v>
+      </c>
+      <c r="P30" s="42">
         <v>6714.67</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="42">
         <v>6970.96</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="42">
         <v>-0.08</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="42">
         <v>0.15</v>
       </c>
-      <c r="T30" s="43">
+      <c r="T30" s="42">
         <v>1.02</v>
       </c>
-      <c r="U30" s="43">
+      <c r="U30" s="42">
         <v>10025.56</v>
       </c>
-      <c r="V30" s="43">
+      <c r="V30" s="42">
         <v>0.01</v>
       </c>
-      <c r="W30" s="43">
+      <c r="W30" s="42">
         <v>78.78</v>
       </c>
-      <c r="X30" s="43">
+      <c r="X30" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y30" s="43">
+      <c r="Y30" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z30" s="43">
+      <c r="Z30" s="42">
         <v>-0.05</v>
       </c>
-      <c r="AA30" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AB30" s="43">
+      <c r="AA30" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC30" s="43">
+      <c r="AC30" s="42">
         <v>-0.03</v>
       </c>
-      <c r="AD30" s="42" t="s">
+      <c r="AD30" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE30" s="42" t="s">
+      <c r="AE30" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF30" s="42" t="s">
+      <c r="AF30" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG30" s="43">
-        <v>8.53</v>
-      </c>
-      <c r="AH30" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="AI30" s="43">
+      <c r="AG30" s="42">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="AH30" s="42">
+        <v>5</v>
+      </c>
+      <c r="AI30" s="42">
         <v>11.93</v>
       </c>
-      <c r="AJ30" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK30" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL30" s="43">
+      <c r="AJ30" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK30" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL30" s="42">
         <v>317.69</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="42" t="s">
+    <row r="31" spans="1:38" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="43">
-        <v>78.68</v>
-      </c>
-      <c r="E31" s="43">
+      <c r="D31" s="45">
+        <v>78.680000000000007</v>
+      </c>
+      <c r="E31" s="45">
         <v>16.55</v>
       </c>
-      <c r="F31" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="G31" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="43">
+      <c r="F31" s="45">
+        <v>15</v>
+      </c>
+      <c r="G31" s="45">
+        <v>0</v>
+      </c>
+      <c r="H31" s="45">
         <v>0.95</v>
       </c>
-      <c r="I31" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J31" s="43">
+      <c r="I31" s="45">
+        <v>0</v>
+      </c>
+      <c r="J31" s="45">
         <v>0.05</v>
       </c>
-      <c r="K31" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L31" s="43">
+      <c r="K31" s="45">
+        <v>0</v>
+      </c>
+      <c r="L31" s="45">
         <v>2772.62</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="45">
         <v>0.18</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="45">
         <v>18.27</v>
       </c>
-      <c r="O31" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P31" s="43">
+      <c r="O31" s="45">
+        <v>0</v>
+      </c>
+      <c r="P31" s="45">
         <v>4713.8</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="Q31" s="45">
         <v>4862.66</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="45">
         <v>-0.05</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="45">
         <v>0.1</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="45">
         <v>1.02</v>
       </c>
-      <c r="U31" s="43">
+      <c r="U31" s="45">
         <v>7617.2</v>
       </c>
-      <c r="V31" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W31" s="43">
-        <v>39.0</v>
-      </c>
-      <c r="X31" s="43">
+      <c r="V31" s="45">
+        <v>0</v>
+      </c>
+      <c r="W31" s="45">
+        <v>39</v>
+      </c>
+      <c r="X31" s="45">
         <v>-0.01</v>
       </c>
-      <c r="Y31" s="43">
+      <c r="Y31" s="45">
         <v>0.02</v>
       </c>
-      <c r="Z31" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AA31" s="43">
+      <c r="Z31" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA31" s="45">
         <v>-0.05</v>
       </c>
-      <c r="AB31" s="43">
+      <c r="AB31" s="45">
         <v>-0.01</v>
       </c>
-      <c r="AC31" s="43">
+      <c r="AC31" s="45">
         <v>0.02</v>
       </c>
-      <c r="AD31" s="42" t="s">
+      <c r="AD31" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="AE31" s="42" t="s">
+      <c r="AE31" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="AF31" s="42" t="s">
+      <c r="AF31" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="AG31" s="43">
+      <c r="AG31" s="45">
         <v>5.9</v>
       </c>
-      <c r="AH31" s="43">
-        <v>4.4</v>
-      </c>
-      <c r="AI31" s="43">
+      <c r="AH31" s="45">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI31" s="45">
         <v>7.88</v>
       </c>
-      <c r="AJ31" s="43">
+      <c r="AJ31" s="45">
         <v>2.39</v>
       </c>
-      <c r="AK31" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AL31" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="42" t="s">
+      <c r="AK31" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="43">
+      <c r="D32" s="42">
         <v>69.58</v>
       </c>
-      <c r="E32" s="43">
-        <v>-138.89</v>
-      </c>
-      <c r="F32" s="43">
-        <v>15.0</v>
-      </c>
-      <c r="G32" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="43">
+      <c r="E32" s="42">
+        <v>-138.88999999999999</v>
+      </c>
+      <c r="F32" s="42">
+        <v>15</v>
+      </c>
+      <c r="G32" s="42">
+        <v>0</v>
+      </c>
+      <c r="H32" s="42">
         <v>0.03</v>
       </c>
-      <c r="I32" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="43">
+      <c r="I32" s="42">
+        <v>0</v>
+      </c>
+      <c r="J32" s="42">
         <v>0.16</v>
       </c>
-      <c r="K32" s="43">
+      <c r="K32" s="42">
         <v>0.81</v>
       </c>
-      <c r="L32" s="43">
+      <c r="L32" s="42">
         <v>3670.17</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="42">
         <v>0.18</v>
       </c>
-      <c r="N32" s="43">
+      <c r="N32" s="42">
         <v>24.12</v>
       </c>
-      <c r="O32" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P32" s="43">
+      <c r="O32" s="42">
+        <v>0</v>
+      </c>
+      <c r="P32" s="42">
         <v>8060.13</v>
       </c>
-      <c r="Q32" s="43">
-        <v>8440.05</v>
-      </c>
-      <c r="R32" s="43">
+      <c r="Q32" s="42">
+        <v>8440.0499999999993</v>
+      </c>
+      <c r="R32" s="42">
         <v>-0.1</v>
       </c>
-      <c r="S32" s="43">
+      <c r="S32" s="42">
         <v>0.04</v>
       </c>
-      <c r="T32" s="43">
+      <c r="T32" s="42">
         <v>0.99</v>
       </c>
-      <c r="U32" s="43">
+      <c r="U32" s="42">
         <v>12082.13</v>
       </c>
-      <c r="V32" s="43">
+      <c r="V32" s="42">
         <v>0.01</v>
       </c>
-      <c r="W32" s="43">
+      <c r="W32" s="42">
         <v>68.13</v>
       </c>
-      <c r="X32" s="43">
+      <c r="X32" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y32" s="43">
+      <c r="Y32" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z32" s="43">
+      <c r="Z32" s="42">
         <v>-0.04</v>
       </c>
-      <c r="AA32" s="43">
+      <c r="AA32" s="42">
         <v>0.02</v>
       </c>
-      <c r="AB32" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AC32" s="43">
+      <c r="AB32" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AD32" s="42" t="s">
+      <c r="AD32" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE32" s="42" t="s">
+      <c r="AE32" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF32" s="42" t="s">
+      <c r="AF32" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG32" s="43">
+      <c r="AG32" s="42">
         <v>7.75</v>
       </c>
-      <c r="AH32" s="43">
+      <c r="AH32" s="42">
         <v>4.83</v>
       </c>
-      <c r="AI32" s="43">
+      <c r="AI32" s="42">
         <v>10.55</v>
       </c>
-      <c r="AJ32" s="43">
+      <c r="AJ32" s="42">
         <v>21.42</v>
       </c>
-      <c r="AK32" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL32" s="43">
+      <c r="AK32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL32" s="42">
         <v>308.68</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="42" t="s">
+    <row r="33" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="42">
         <v>69.42</v>
       </c>
-      <c r="E33" s="43">
-        <v>-148.7</v>
-      </c>
-      <c r="F33" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="G33" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="43">
+      <c r="E33" s="42">
+        <v>-148.69999999999999</v>
+      </c>
+      <c r="F33" s="42">
+        <v>20</v>
+      </c>
+      <c r="G33" s="42">
+        <v>0</v>
+      </c>
+      <c r="H33" s="42">
         <v>0.01</v>
       </c>
-      <c r="I33" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="43">
+      <c r="I33" s="42">
+        <v>0</v>
+      </c>
+      <c r="J33" s="42">
         <v>0.02</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="42">
         <v>0.97</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="42">
         <v>3488.67</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="42">
         <v>0.17</v>
       </c>
-      <c r="N33" s="43">
-        <v>23.0</v>
-      </c>
-      <c r="O33" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P33" s="43">
-        <v>8790.8</v>
-      </c>
-      <c r="Q33" s="43">
+      <c r="N33" s="42">
+        <v>23</v>
+      </c>
+      <c r="O33" s="42">
+        <v>0</v>
+      </c>
+      <c r="P33" s="42">
+        <v>8790.7999999999993</v>
+      </c>
+      <c r="Q33" s="42">
         <v>8895.42</v>
       </c>
-      <c r="R33" s="43">
+      <c r="R33" s="42">
         <v>-0.03</v>
       </c>
-      <c r="S33" s="43">
+      <c r="S33" s="42">
         <v>0.03</v>
       </c>
-      <c r="T33" s="43">
+      <c r="T33" s="42">
         <v>0.99</v>
       </c>
-      <c r="U33" s="43">
+      <c r="U33" s="42">
         <v>12363.4</v>
       </c>
-      <c r="V33" s="43">
+      <c r="V33" s="42">
         <v>0.01</v>
       </c>
-      <c r="W33" s="43">
+      <c r="W33" s="42">
         <v>49.6</v>
       </c>
-      <c r="X33" s="43">
+      <c r="X33" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y33" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Z33" s="43">
+      <c r="Y33" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="42">
         <v>-0.06</v>
       </c>
-      <c r="AA33" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AB33" s="43">
+      <c r="AA33" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC33" s="43">
+      <c r="AC33" s="42">
         <v>-0.02</v>
       </c>
-      <c r="AD33" s="42" t="s">
+      <c r="AD33" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE33" s="42" t="s">
+      <c r="AE33" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF33" s="42" t="s">
+      <c r="AF33" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG33" s="43">
+      <c r="AG33" s="42">
         <v>9.34</v>
       </c>
-      <c r="AH33" s="43">
-        <v>4.94</v>
-      </c>
-      <c r="AI33" s="43">
+      <c r="AH33" s="42">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="AI33" s="42">
         <v>13.79</v>
       </c>
-      <c r="AJ33" s="43">
+      <c r="AJ33" s="42">
         <v>18.71</v>
       </c>
-      <c r="AK33" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AL33" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="42" t="s">
+      <c r="AK33" s="42">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="43">
+      <c r="D34" s="42">
         <v>72.38</v>
       </c>
-      <c r="E34" s="43">
+      <c r="E34" s="42">
         <v>126.48</v>
       </c>
-      <c r="F34" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="G34" s="43">
+      <c r="F34" s="42">
+        <v>20</v>
+      </c>
+      <c r="G34" s="42">
         <v>0.99</v>
       </c>
-      <c r="H34" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I34" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="43">
+      <c r="H34" s="42">
+        <v>0</v>
+      </c>
+      <c r="I34" s="42">
+        <v>0</v>
+      </c>
+      <c r="J34" s="42">
         <v>0.01</v>
       </c>
-      <c r="K34" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L34" s="43">
+      <c r="K34" s="42">
+        <v>0</v>
+      </c>
+      <c r="L34" s="42">
         <v>2866.88</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="42">
         <v>0.18</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="42">
         <v>18.64</v>
       </c>
-      <c r="O34" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P34" s="43">
+      <c r="O34" s="42">
+        <v>0</v>
+      </c>
+      <c r="P34" s="42">
         <v>5262.22</v>
       </c>
-      <c r="Q34" s="43">
+      <c r="Q34" s="42">
         <v>5865.17</v>
       </c>
-      <c r="R34" s="43">
+      <c r="R34" s="42">
         <v>-0.21</v>
       </c>
-      <c r="S34" s="43">
-        <v>0.29</v>
-      </c>
-      <c r="T34" s="43">
+      <c r="S34" s="42">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T34" s="42">
         <v>1.07</v>
       </c>
-      <c r="U34" s="43">
+      <c r="U34" s="42">
         <v>8689.11</v>
       </c>
-      <c r="V34" s="43">
+      <c r="V34" s="42">
         <v>0.01</v>
       </c>
-      <c r="W34" s="43">
+      <c r="W34" s="42">
         <v>95.22</v>
       </c>
-      <c r="X34" s="43">
+      <c r="X34" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y34" s="43">
+      <c r="Y34" s="42">
         <v>-0.24</v>
       </c>
-      <c r="Z34" s="43">
+      <c r="Z34" s="42">
         <v>0.05</v>
       </c>
-      <c r="AA34" s="43">
+      <c r="AA34" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AB34" s="43">
+      <c r="AB34" s="42">
         <v>0.15</v>
       </c>
-      <c r="AC34" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="AD34" s="42" t="s">
+      <c r="AC34" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="AE34" s="42" t="s">
+      <c r="AE34" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="AF34" s="42" t="s">
+      <c r="AF34" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="AG34" s="43">
+      <c r="AG34" s="42">
         <v>6.98</v>
       </c>
-      <c r="AH34" s="43">
+      <c r="AH34" s="42">
         <v>2.52</v>
       </c>
-      <c r="AI34" s="43">
+      <c r="AI34" s="42">
         <v>10.48</v>
       </c>
-      <c r="AJ34" s="43">
+      <c r="AJ34" s="42">
         <v>10.17</v>
       </c>
-      <c r="AK34" s="43">
-        <v>310.71</v>
-      </c>
-      <c r="AL34" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="42" t="s">
+      <c r="AK34" s="42">
+        <v>310.70999999999998</v>
+      </c>
+      <c r="AL34" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="45">
         <v>79.12</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="45">
         <v>-80.67</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="45">
         <v>7.8</v>
       </c>
-      <c r="G35" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H35" s="43">
+      <c r="G35" s="45">
+        <v>0</v>
+      </c>
+      <c r="H35" s="45">
         <v>0.72</v>
       </c>
-      <c r="I35" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J35" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K35" s="43">
-        <v>0.28</v>
-      </c>
-      <c r="L35" s="43">
-        <v>2542.0</v>
-      </c>
-      <c r="M35" s="43">
+      <c r="I35" s="45">
+        <v>0</v>
+      </c>
+      <c r="J35" s="45">
+        <v>0</v>
+      </c>
+      <c r="K35" s="45">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L35" s="45">
+        <v>2542</v>
+      </c>
+      <c r="M35" s="45">
         <v>0.31</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="45">
         <v>16.95</v>
       </c>
-      <c r="O35" s="43">
+      <c r="O35" s="45">
         <v>0.01</v>
       </c>
-      <c r="P35" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="Q35" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="R35" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="S35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="T35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="U35" s="43">
-        <v>2542.0</v>
-      </c>
-      <c r="V35" s="43">
+      <c r="P35" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="45">
+        <v>0</v>
+      </c>
+      <c r="R35" s="45">
+        <v>0</v>
+      </c>
+      <c r="S35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U35" s="45">
+        <v>2542</v>
+      </c>
+      <c r="V35" s="45">
         <v>0.1</v>
       </c>
-      <c r="W35" s="43">
-        <v>905.0</v>
-      </c>
-      <c r="X35" s="43">
+      <c r="W35" s="45">
+        <v>905</v>
+      </c>
+      <c r="X35" s="45">
         <v>-0.01</v>
       </c>
-      <c r="Y35" s="43">
+      <c r="Y35" s="45">
         <v>0.02</v>
       </c>
-      <c r="Z35" s="43">
+      <c r="Z35" s="45">
         <v>0.02</v>
       </c>
-      <c r="AA35" s="43">
-        <v>-0.07</v>
-      </c>
-      <c r="AB35" s="43">
+      <c r="AA35" s="45">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AB35" s="45">
         <v>-0.01</v>
       </c>
-      <c r="AC35" s="43">
+      <c r="AC35" s="45">
         <v>-0.01</v>
       </c>
-      <c r="AD35" s="42" t="s">
+      <c r="AD35" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="AE35" s="42" t="s">
+      <c r="AE35" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="AF35" s="42" t="s">
+      <c r="AF35" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="AG35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL35" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="42" t="s">
+      <c r="AG35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK35" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL35" s="44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="43">
-        <v>68.32</v>
-      </c>
-      <c r="E36" s="43">
+      <c r="D36" s="42">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="E36" s="42">
         <v>18.96</v>
       </c>
-      <c r="F36" s="43">
-        <v>9.0</v>
-      </c>
-      <c r="G36" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H36" s="43">
+      <c r="F36" s="42">
+        <v>9</v>
+      </c>
+      <c r="G36" s="42">
+        <v>0</v>
+      </c>
+      <c r="H36" s="42">
         <v>0.94</v>
       </c>
-      <c r="I36" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="43">
+      <c r="I36" s="42">
+        <v>0</v>
+      </c>
+      <c r="J36" s="42">
         <v>0.06</v>
       </c>
-      <c r="K36" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L36" s="43">
+      <c r="K36" s="42">
+        <v>0</v>
+      </c>
+      <c r="L36" s="42">
         <v>2805.45</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="42">
         <v>0.17</v>
       </c>
-      <c r="N36" s="43">
+      <c r="N36" s="42">
         <v>18.45</v>
       </c>
-      <c r="O36" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P36" s="43">
+      <c r="O36" s="42">
+        <v>0</v>
+      </c>
+      <c r="P36" s="42">
         <v>6235.7</v>
       </c>
-      <c r="Q36" s="43">
+      <c r="Q36" s="42">
         <v>6505.51</v>
       </c>
-      <c r="R36" s="43">
+      <c r="R36" s="42">
         <v>-0.1</v>
       </c>
-      <c r="S36" s="43">
+      <c r="S36" s="42">
         <v>0.18</v>
       </c>
-      <c r="T36" s="43">
+      <c r="T36" s="42">
         <v>1.05</v>
       </c>
-      <c r="U36" s="43">
+      <c r="U36" s="42">
         <v>9290.4</v>
       </c>
-      <c r="V36" s="43">
+      <c r="V36" s="42">
         <v>0.01</v>
       </c>
-      <c r="W36" s="43">
+      <c r="W36" s="42">
         <v>55.1</v>
       </c>
-      <c r="X36" s="43">
+      <c r="X36" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y36" s="43">
+      <c r="Y36" s="42">
         <v>0.02</v>
       </c>
-      <c r="Z36" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AA36" s="43">
+      <c r="Z36" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA36" s="42">
         <v>-0.05</v>
       </c>
-      <c r="AB36" s="43">
+      <c r="AB36" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC36" s="43">
+      <c r="AC36" s="42">
         <v>0.02</v>
       </c>
-      <c r="AD36" s="42" t="s">
+      <c r="AD36" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AE36" s="42" t="s">
+      <c r="AE36" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="AF36" s="42" t="s">
+      <c r="AF36" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AG36" s="43">
+      <c r="AG36" s="42">
         <v>9.19</v>
       </c>
-      <c r="AH36" s="43">
+      <c r="AH36" s="42">
         <v>4.55</v>
       </c>
-      <c r="AI36" s="43">
+      <c r="AI36" s="42">
         <v>13.46</v>
       </c>
-      <c r="AJ36" s="43">
-        <v>73.0</v>
-      </c>
-      <c r="AK36" s="43">
+      <c r="AJ36" s="42">
+        <v>73</v>
+      </c>
+      <c r="AK36" s="42">
         <v>432.4</v>
       </c>
-      <c r="AL36" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="42" t="s">
+      <c r="AL36" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="42">
         <v>65.87</v>
       </c>
-      <c r="E37" s="43">
+      <c r="E37" s="42">
         <v>-111.53</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="42">
         <v>9.5</v>
       </c>
-      <c r="G37" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="43">
+      <c r="G37" s="42">
+        <v>0</v>
+      </c>
+      <c r="H37" s="42">
+        <v>0</v>
+      </c>
+      <c r="I37" s="42">
+        <v>0</v>
+      </c>
+      <c r="J37" s="42">
         <v>0.16</v>
       </c>
-      <c r="K37" s="43">
+      <c r="K37" s="42">
         <v>0.84</v>
       </c>
-      <c r="L37" s="43">
+      <c r="L37" s="42">
         <v>3017.99</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="42">
         <v>0.18</v>
       </c>
-      <c r="N37" s="43">
+      <c r="N37" s="42">
         <v>19.66</v>
       </c>
-      <c r="O37" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P37" s="43">
+      <c r="O37" s="42">
+        <v>0</v>
+      </c>
+      <c r="P37" s="42">
         <v>6340.44</v>
       </c>
-      <c r="Q37" s="43">
+      <c r="Q37" s="42">
         <v>6744.7</v>
       </c>
-      <c r="R37" s="43">
+      <c r="R37" s="42">
         <v>-0.13</v>
       </c>
-      <c r="S37" s="43">
+      <c r="S37" s="42">
         <v>0.16</v>
       </c>
-      <c r="T37" s="43">
+      <c r="T37" s="42">
         <v>1.07</v>
       </c>
-      <c r="U37" s="43">
+      <c r="U37" s="42">
         <v>9725.11</v>
       </c>
-      <c r="V37" s="43">
+      <c r="V37" s="42">
         <v>0.01</v>
       </c>
-      <c r="W37" s="43">
+      <c r="W37" s="42">
         <v>122.78</v>
       </c>
-      <c r="X37" s="43">
+      <c r="X37" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y37" s="43">
+      <c r="Y37" s="42">
         <v>0.01</v>
       </c>
-      <c r="Z37" s="43">
+      <c r="Z37" s="42">
         <v>-0.05</v>
       </c>
-      <c r="AA37" s="43">
+      <c r="AA37" s="42">
         <v>0.04</v>
       </c>
-      <c r="AB37" s="43">
+      <c r="AB37" s="42">
         <v>0.01</v>
       </c>
-      <c r="AC37" s="43">
+      <c r="AC37" s="42">
         <v>-0.05</v>
       </c>
-      <c r="AD37" s="42" t="s">
+      <c r="AD37" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="AE37" s="42" t="s">
+      <c r="AE37" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF37" s="42" t="s">
+      <c r="AF37" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AG37" s="43">
+      <c r="AG37" s="42">
         <v>11.06</v>
       </c>
-      <c r="AH37" s="43">
+      <c r="AH37" s="42">
         <v>6.1</v>
       </c>
-      <c r="AI37" s="43">
+      <c r="AI37" s="42">
         <v>16.27</v>
       </c>
-      <c r="AJ37" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK37" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL37" s="43">
+      <c r="AJ37" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK37" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL37" s="42">
         <v>342.42</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="42" t="s">
+    <row r="38" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="42">
         <v>72.61</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="42">
         <v>126.43</v>
       </c>
-      <c r="F38" s="43">
-        <v>20.0</v>
-      </c>
-      <c r="G38" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="H38" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J38" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="K38" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L38" s="43">
+      <c r="F38" s="42">
+        <v>20</v>
+      </c>
+      <c r="G38" s="42">
+        <v>1</v>
+      </c>
+      <c r="H38" s="42">
+        <v>0</v>
+      </c>
+      <c r="I38" s="42">
+        <v>0</v>
+      </c>
+      <c r="J38" s="42">
+        <v>0</v>
+      </c>
+      <c r="K38" s="42">
+        <v>0</v>
+      </c>
+      <c r="L38" s="42">
         <v>3127.81</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="42">
         <v>0.18</v>
       </c>
-      <c r="N38" s="43">
+      <c r="N38" s="42">
         <v>20.48</v>
       </c>
-      <c r="O38" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P38" s="43">
-        <v>6423.0</v>
-      </c>
-      <c r="Q38" s="43">
+      <c r="O38" s="42">
+        <v>0</v>
+      </c>
+      <c r="P38" s="42">
+        <v>6423</v>
+      </c>
+      <c r="Q38" s="42">
         <v>6651.38</v>
       </c>
-      <c r="R38" s="43">
-        <v>-0.07</v>
-      </c>
-      <c r="S38" s="43">
+      <c r="R38" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="S38" s="42">
         <v>0.31</v>
       </c>
-      <c r="T38" s="43">
+      <c r="T38" s="42">
         <v>1.01</v>
       </c>
-      <c r="U38" s="43">
+      <c r="U38" s="42">
         <v>9747.4</v>
       </c>
-      <c r="V38" s="43">
+      <c r="V38" s="42">
         <v>0.01</v>
       </c>
-      <c r="W38" s="43">
-        <v>89.0</v>
-      </c>
-      <c r="X38" s="43">
+      <c r="W38" s="42">
+        <v>89</v>
+      </c>
+      <c r="X38" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y38" s="43">
+      <c r="Y38" s="42">
         <v>-0.2</v>
       </c>
-      <c r="Z38" s="43">
+      <c r="Z38" s="42">
         <v>0.01</v>
       </c>
-      <c r="AA38" s="43">
+      <c r="AA38" s="42">
         <v>0.02</v>
       </c>
-      <c r="AB38" s="43">
+      <c r="AB38" s="42">
         <v>-0.2</v>
       </c>
-      <c r="AC38" s="43">
+      <c r="AC38" s="42">
         <v>0.01</v>
       </c>
-      <c r="AD38" s="42" t="s">
+      <c r="AD38" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="AE38" s="42" t="s">
+      <c r="AE38" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="AF38" s="42" t="s">
+      <c r="AF38" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="AG38" s="43">
+      <c r="AG38" s="42">
         <v>6.98</v>
       </c>
-      <c r="AH38" s="43">
+      <c r="AH38" s="42">
         <v>2.52</v>
       </c>
-      <c r="AI38" s="43">
+      <c r="AI38" s="42">
         <v>10.48</v>
       </c>
-      <c r="AJ38" s="43">
+      <c r="AJ38" s="42">
         <v>10.17</v>
       </c>
-      <c r="AK38" s="43">
-        <v>310.71</v>
-      </c>
-      <c r="AL38" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="42" t="s">
+      <c r="AK38" s="42">
+        <v>310.70999999999998</v>
+      </c>
+      <c r="AL38" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="42">
         <v>74.47</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="42">
         <v>-20.56</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="42">
         <v>10.5</v>
       </c>
-      <c r="G39" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="H39" s="43">
+      <c r="G39" s="42">
+        <v>0</v>
+      </c>
+      <c r="H39" s="42">
         <v>0.97</v>
       </c>
-      <c r="I39" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="J39" s="43">
+      <c r="I39" s="42">
+        <v>0</v>
+      </c>
+      <c r="J39" s="42">
         <v>0.03</v>
       </c>
-      <c r="K39" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="L39" s="43">
+      <c r="K39" s="42">
+        <v>0</v>
+      </c>
+      <c r="L39" s="42">
         <v>2928.2</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="42">
         <v>0.18</v>
       </c>
-      <c r="N39" s="43">
+      <c r="N39" s="42">
         <v>19.41</v>
       </c>
-      <c r="O39" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="P39" s="43">
-        <v>5393.0</v>
-      </c>
-      <c r="Q39" s="43">
+      <c r="O39" s="42">
+        <v>0</v>
+      </c>
+      <c r="P39" s="42">
+        <v>5393</v>
+      </c>
+      <c r="Q39" s="42">
         <v>6044.22</v>
       </c>
-      <c r="R39" s="43">
+      <c r="R39" s="42">
         <v>-0.22</v>
       </c>
-      <c r="S39" s="43">
+      <c r="S39" s="42">
         <v>0.38</v>
       </c>
-      <c r="T39" s="43">
+      <c r="T39" s="42">
         <v>1.04</v>
       </c>
-      <c r="U39" s="43">
+      <c r="U39" s="42">
         <v>8963.6</v>
       </c>
-      <c r="V39" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="W39" s="43">
+      <c r="V39" s="42">
+        <v>0</v>
+      </c>
+      <c r="W39" s="42">
         <v>24.9</v>
       </c>
-      <c r="X39" s="43">
+      <c r="X39" s="42">
         <v>-0.01</v>
       </c>
-      <c r="Y39" s="43">
+      <c r="Y39" s="42">
         <v>0.03</v>
       </c>
-      <c r="Z39" s="43">
-        <v>0.07</v>
-      </c>
-      <c r="AA39" s="43">
+      <c r="Z39" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA39" s="42">
         <v>-0.06</v>
       </c>
-      <c r="AB39" s="43">
+      <c r="AB39" s="42">
         <v>-0.01</v>
       </c>
-      <c r="AC39" s="43">
+      <c r="AC39" s="42">
         <v>0.02</v>
       </c>
-      <c r="AD39" s="42" t="s">
+      <c r="AD39" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="AE39" s="42" t="s">
+      <c r="AE39" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="AF39" s="42" t="s">
+      <c r="AF39" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AG39" s="43">
+      <c r="AG39" s="42">
         <v>3.56</v>
       </c>
-      <c r="AH39" s="43">
+      <c r="AH39" s="42">
         <v>0.73</v>
       </c>
-      <c r="AI39" s="43">
+      <c r="AI39" s="42">
         <v>7.14</v>
       </c>
-      <c r="AJ39" s="43">
-        <v>120.0</v>
-      </c>
-      <c r="AK39" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL39" s="42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="AJ39" s="42">
+        <v>120</v>
+      </c>
+      <c r="AK39" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL39" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -7837,21 +7806,22 @@
       <c r="AL40" s="32"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>264</v>
       </c>
@@ -7882,281 +7852,281 @@
       <c r="J1" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="42" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="43">
-        <v>0.037673</v>
-      </c>
-      <c r="E2" s="43">
-        <v>3.25361</v>
-      </c>
-      <c r="F2" s="43">
-        <v>0.001139</v>
-      </c>
-      <c r="G2" s="43">
-        <v>0.146943</v>
-      </c>
-      <c r="H2" s="43">
-        <v>299.708</v>
-      </c>
-      <c r="I2" s="43">
+      <c r="D2" s="42">
+        <v>3.7672999999999998E-2</v>
+      </c>
+      <c r="E2" s="42">
+        <v>3.2536100000000001</v>
+      </c>
+      <c r="F2" s="42">
+        <v>1.139E-3</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0.14694299999999999</v>
+      </c>
+      <c r="H2" s="42">
+        <v>299.70800000000003</v>
+      </c>
+      <c r="I2" s="42">
         <v>183.405</v>
       </c>
-      <c r="J2" s="43">
-        <v>170.088</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="42" t="s">
+      <c r="J2" s="42">
+        <v>170.08799999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="43">
-        <v>0.034745</v>
-      </c>
-      <c r="E3" s="43">
-        <v>3.06415</v>
-      </c>
-      <c r="F3" s="43">
-        <v>0.002183</v>
-      </c>
-      <c r="G3" s="43">
+      <c r="D3" s="42">
+        <v>3.4744999999999998E-2</v>
+      </c>
+      <c r="E3" s="42">
+        <v>3.0641500000000002</v>
+      </c>
+      <c r="F3" s="42">
+        <v>2.183E-3</v>
+      </c>
+      <c r="G3" s="42">
         <v>0.107267</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="42">
         <v>306.976</v>
       </c>
-      <c r="I3" s="43">
-        <v>181.074</v>
-      </c>
-      <c r="J3" s="43">
-        <v>168.914</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="42" t="s">
+      <c r="I3" s="42">
+        <v>181.07400000000001</v>
+      </c>
+      <c r="J3" s="42">
+        <v>168.91399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="43">
-        <v>0.044114</v>
-      </c>
-      <c r="E4" s="43">
-        <v>3.73829</v>
-      </c>
-      <c r="F4" s="43">
+      <c r="D4" s="42">
+        <v>4.4114E-2</v>
+      </c>
+      <c r="E4" s="42">
+        <v>3.7382900000000001</v>
+      </c>
+      <c r="F4" s="42">
         <v>1.85E-4</v>
       </c>
-      <c r="G4" s="43">
-        <v>0.212772</v>
-      </c>
-      <c r="H4" s="43">
-        <v>342.866</v>
-      </c>
-      <c r="I4" s="43">
-        <v>177.831</v>
-      </c>
-      <c r="J4" s="43">
-        <v>162.805</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="42" t="s">
+      <c r="G4" s="42">
+        <v>0.21277199999999999</v>
+      </c>
+      <c r="H4" s="42">
+        <v>342.86599999999999</v>
+      </c>
+      <c r="I4" s="42">
+        <v>177.83099999999999</v>
+      </c>
+      <c r="J4" s="42">
+        <v>162.80500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="43">
-        <v>0.030971</v>
-      </c>
-      <c r="E5" s="43">
-        <v>2.53398</v>
-      </c>
-      <c r="F5" s="43">
-        <v>0.011278</v>
-      </c>
-      <c r="G5" s="43">
-        <v>0.073299</v>
-      </c>
-      <c r="H5" s="43">
-        <v>300.758</v>
-      </c>
-      <c r="I5" s="43">
-        <v>178.242</v>
-      </c>
-      <c r="J5" s="43">
-        <v>167.533</v>
+      <c r="D5" s="42">
+        <v>3.0970999999999999E-2</v>
+      </c>
+      <c r="E5" s="42">
+        <v>2.5339800000000001</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1.1278E-2</v>
+      </c>
+      <c r="G5" s="42">
+        <v>7.3299000000000003E-2</v>
+      </c>
+      <c r="H5" s="42">
+        <v>300.75799999999998</v>
+      </c>
+      <c r="I5" s="42">
+        <v>178.24199999999999</v>
+      </c>
+      <c r="J5" s="42">
+        <v>167.53299999999999</v>
       </c>
       <c r="K5" s="32"/>
     </row>
-    <row r="6">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="43">
-        <v>0.03569</v>
-      </c>
-      <c r="E6" s="43">
-        <v>2.86112</v>
-      </c>
-      <c r="F6" s="43">
-        <v>0.004221</v>
-      </c>
-      <c r="G6" s="43">
-        <v>0.112256</v>
-      </c>
-      <c r="H6" s="43">
-        <v>300.937</v>
-      </c>
-      <c r="I6" s="43">
+      <c r="D6" s="42">
+        <v>3.569E-2</v>
+      </c>
+      <c r="E6" s="42">
+        <v>2.8611200000000001</v>
+      </c>
+      <c r="F6" s="42">
+        <v>4.2209999999999999E-3</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.11225599999999999</v>
+      </c>
+      <c r="H6" s="42">
+        <v>300.93700000000001</v>
+      </c>
+      <c r="I6" s="42">
         <v>183.965</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="42">
         <v>171.286</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="43">
-        <v>0.032086</v>
-      </c>
-      <c r="E7" s="43">
-        <v>2.84865</v>
-      </c>
-      <c r="F7" s="43">
-        <v>0.004391</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0.096997</v>
-      </c>
-      <c r="H7" s="43">
-        <v>294.354</v>
-      </c>
-      <c r="I7" s="43">
+      <c r="D7" s="42">
+        <v>3.2086000000000003E-2</v>
+      </c>
+      <c r="E7" s="42">
+        <v>2.8486500000000001</v>
+      </c>
+      <c r="F7" s="42">
+        <v>4.3909999999999999E-3</v>
+      </c>
+      <c r="G7" s="42">
+        <v>9.6997E-2</v>
+      </c>
+      <c r="H7" s="42">
+        <v>294.35399999999998</v>
+      </c>
+      <c r="I7" s="42">
         <v>180.994</v>
       </c>
-      <c r="J7" s="43">
-        <v>169.741</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="42" t="s">
+      <c r="J7" s="42">
+        <v>169.74100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="43">
-        <v>0.039031</v>
-      </c>
-      <c r="E8" s="43">
+      <c r="D8" s="42">
+        <v>3.9031000000000003E-2</v>
+      </c>
+      <c r="E8" s="42">
         <v>3.06304</v>
       </c>
-      <c r="F8" s="43">
-        <v>0.002191</v>
-      </c>
-      <c r="G8" s="43">
-        <v>0.129058</v>
-      </c>
-      <c r="H8" s="43">
-        <v>298.463</v>
-      </c>
-      <c r="I8" s="43">
+      <c r="F8" s="42">
+        <v>2.1909999999999998E-3</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0.12905800000000001</v>
+      </c>
+      <c r="H8" s="42">
+        <v>298.46300000000002</v>
+      </c>
+      <c r="I8" s="42">
         <v>184.821</v>
       </c>
-      <c r="J8" s="43">
-        <v>170.936</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="42" t="s">
+      <c r="J8" s="42">
+        <v>170.93600000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="43">
-        <v>0.042263</v>
-      </c>
-      <c r="E9" s="43">
-        <v>3.42755</v>
-      </c>
-      <c r="F9" s="43">
-        <v>6.09E-4</v>
-      </c>
-      <c r="G9" s="43">
+      <c r="D9" s="42">
+        <v>4.2263000000000002E-2</v>
+      </c>
+      <c r="E9" s="42">
+        <v>3.4275500000000001</v>
+      </c>
+      <c r="F9" s="42">
+        <v>6.0899999999999995E-4</v>
+      </c>
+      <c r="G9" s="42">
         <v>0.143014</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="42">
         <v>298.42</v>
       </c>
-      <c r="I9" s="43">
-        <v>181.335</v>
-      </c>
-      <c r="J9" s="43">
-        <v>166.629</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="I9" s="42">
+        <v>181.33500000000001</v>
+      </c>
+      <c r="J9" s="42">
+        <v>166.62899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -8169,6 +8139,6 @@
       <c r="J10" s="32"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>